--- a/BackTest/2019-10-20 BackTest DVP.xlsx
+++ b/BackTest/2019-10-20 BackTest DVP.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>1.1</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>-9.090909090909062</v>
+      </c>
       <c r="L12" t="n">
         <v>14.01</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>-23.07692307692312</v>
+      </c>
       <c r="L13" t="n">
         <v>13.98</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>-16.66666666666674</v>
+      </c>
       <c r="L14" t="n">
         <v>13.95</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>-16.66666666666674</v>
+      </c>
       <c r="L15" t="n">
         <v>13.93</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.300000000000001</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>-27.27272727272731</v>
+      </c>
       <c r="L16" t="n">
         <v>13.90999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.500000000000002</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>-27.2727272727271</v>
+      </c>
       <c r="L17" t="n">
         <v>13.9</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>-45.4545454545454</v>
+      </c>
       <c r="L18" t="n">
         <v>13.86</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.600000000000001</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-33.3333333333332</v>
+      </c>
       <c r="L19" t="n">
         <v>13.81</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.700000000000001</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>14.28571428571421</v>
+      </c>
       <c r="L20" t="n">
         <v>13.79</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.900000000000002</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-25.00000000000006</v>
+      </c>
       <c r="L21" t="n">
         <v>13.78</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>2.100000000000003</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>25.00000000000006</v>
+      </c>
       <c r="L22" t="n">
         <v>13.78</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K23" t="n">
-        <v>-13.04347826086957</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>13.78</v>
@@ -1466,7 +1488,7 @@
         <v>2.300000000000004</v>
       </c>
       <c r="K24" t="n">
-        <v>-13.04347826086957</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>13.78</v>
@@ -1515,7 +1537,7 @@
         <v>2.400000000000004</v>
       </c>
       <c r="K25" t="n">
-        <v>-13.04347826086957</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L25" t="n">
         <v>13.77</v>
@@ -1564,7 +1586,7 @@
         <v>2.400000000000004</v>
       </c>
       <c r="K26" t="n">
-        <v>-13.04347826086957</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>13.76</v>
@@ -1613,7 +1635,7 @@
         <v>2.400000000000004</v>
       </c>
       <c r="K27" t="n">
-        <v>-18.18181818181816</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L27" t="n">
         <v>13.73</v>
@@ -1662,7 +1684,7 @@
         <v>2.400000000000004</v>
       </c>
       <c r="K28" t="n">
-        <v>-29.9999999999999</v>
+        <v>-25.00000000000006</v>
       </c>
       <c r="L28" t="n">
         <v>13.70999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>2.400000000000004</v>
       </c>
       <c r="K29" t="n">
-        <v>-36.84210526315788</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L29" t="n">
         <v>13.68999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>2.600000000000005</v>
       </c>
       <c r="K30" t="n">
-        <v>-15.78947368421044</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L30" t="n">
         <v>13.67999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>2.800000000000006</v>
       </c>
       <c r="K31" t="n">
-        <v>-11.11111111111113</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L31" t="n">
         <v>13.66999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>2.900000000000006</v>
       </c>
       <c r="K32" t="n">
-        <v>-11.11111111111113</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>13.64999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>3.000000000000007</v>
       </c>
       <c r="K33" t="n">
-        <v>5.882352941176532</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L33" t="n">
         <v>13.65999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>3.000000000000007</v>
       </c>
       <c r="K34" t="n">
-        <v>5.882352941176532</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L34" t="n">
         <v>13.67</v>
@@ -2013,7 +2035,7 @@
         <v>3.100000000000009</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L35" t="n">
         <v>13.68</v>
@@ -2064,7 +2086,7 @@
         <v>3.100000000000009</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L36" t="n">
         <v>13.68999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>3.100000000000009</v>
       </c>
       <c r="K37" t="n">
-        <v>-12.50000000000001</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L37" t="n">
         <v>13.69999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>3.100000000000009</v>
       </c>
       <c r="K38" t="n">
-        <v>-6.66666666666673</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L38" t="n">
         <v>13.70999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>3.200000000000008</v>
       </c>
       <c r="K39" t="n">
-        <v>-12.50000000000001</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L39" t="n">
         <v>13.70999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>3.400000000000009</v>
       </c>
       <c r="K40" t="n">
-        <v>-5.882352941176421</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L40" t="n">
         <v>13.70999999999999</v>
@@ -2319,7 +2341,7 @@
         <v>3.500000000000009</v>
       </c>
       <c r="K41" t="n">
-        <v>12.50000000000001</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L41" t="n">
         <v>13.73999999999999</v>
@@ -2374,7 +2396,7 @@
         <v>3.500000000000009</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L42" t="n">
         <v>13.76</v>
@@ -2433,7 +2455,7 @@
         <v>3.600000000000009</v>
       </c>
       <c r="K43" t="n">
-        <v>23.07692307692306</v>
+        <v>33.33333333333314</v>
       </c>
       <c r="L43" t="n">
         <v>13.78</v>
@@ -2492,7 +2514,7 @@
         <v>3.800000000000008</v>
       </c>
       <c r="K44" t="n">
-        <v>33.33333333333325</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L44" t="n">
         <v>13.81999999999999</v>
@@ -2551,7 +2573,7 @@
         <v>3.800000000000008</v>
       </c>
       <c r="K45" t="n">
-        <v>42.85714285714271</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L45" t="n">
         <v>13.86999999999999</v>
@@ -2610,7 +2632,7 @@
         <v>4.200000000000006</v>
       </c>
       <c r="K46" t="n">
-        <v>11.11111111111116</v>
+        <v>9.090909090909239</v>
       </c>
       <c r="L46" t="n">
         <v>13.88</v>
@@ -2669,7 +2691,7 @@
         <v>4.300000000000006</v>
       </c>
       <c r="K47" t="n">
-        <v>15.78947368421055</v>
+        <v>16.66666666666679</v>
       </c>
       <c r="L47" t="n">
         <v>13.9</v>
@@ -2728,7 +2750,7 @@
         <v>4.300000000000006</v>
       </c>
       <c r="K48" t="n">
-        <v>15.78947368421055</v>
+        <v>27.27272727272739</v>
       </c>
       <c r="L48" t="n">
         <v>13.92</v>
@@ -2787,7 +2809,7 @@
         <v>4.500000000000005</v>
       </c>
       <c r="K49" t="n">
-        <v>23.8095238095238</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L49" t="n">
         <v>13.97</v>
@@ -2846,7 +2868,7 @@
         <v>4.500000000000005</v>
       </c>
       <c r="K50" t="n">
-        <v>15.78947368421047</v>
+        <v>20</v>
       </c>
       <c r="L50" t="n">
         <v>14</v>
@@ -2905,7 +2927,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K51" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L51" t="n">
         <v>14.03</v>
@@ -2960,7 +2982,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K52" t="n">
-        <v>29.41176470588237</v>
+        <v>20</v>
       </c>
       <c r="L52" t="n">
         <v>14.05999999999999</v>
@@ -3019,7 +3041,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K53" t="n">
-        <v>24.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="L53" t="n">
         <v>14.07999999999999</v>
@@ -3078,7 +3100,7 @@
         <v>4.600000000000005</v>
       </c>
       <c r="K54" t="n">
-        <v>24.99999999999994</v>
+        <v>0</v>
       </c>
       <c r="L54" t="n">
         <v>14.07999999999999</v>
@@ -3137,7 +3159,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K55" t="n">
-        <v>25.00000000000008</v>
+        <v>60</v>
       </c>
       <c r="L55" t="n">
         <v>14.06999999999999</v>
@@ -3194,7 +3216,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K56" t="n">
-        <v>25.00000000000008</v>
+        <v>50</v>
       </c>
       <c r="L56" t="n">
         <v>14.09999999999999</v>
@@ -3251,7 +3273,7 @@
         <v>4.700000000000005</v>
       </c>
       <c r="K57" t="n">
-        <v>25.00000000000008</v>
+        <v>50</v>
       </c>
       <c r="L57" t="n">
         <v>14.11999999999999</v>
@@ -3308,7 +3330,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K58" t="n">
-        <v>29.41176470588243</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>14.14999999999999</v>
@@ -3365,7 +3387,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K59" t="n">
-        <v>37.50000000000007</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L59" t="n">
         <v>14.15999999999999</v>
@@ -3422,7 +3444,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K60" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L60" t="n">
         <v>14.16999999999999</v>
@@ -3479,7 +3501,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K61" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L61" t="n">
         <v>14.16999999999999</v>
@@ -3530,7 +3552,7 @@
         <v>4.800000000000004</v>
       </c>
       <c r="K62" t="n">
-        <v>23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L62" t="n">
         <v>14.16999999999999</v>
@@ -3581,7 +3603,7 @@
         <v>4.900000000000006</v>
       </c>
       <c r="K63" t="n">
-        <v>23.07692307692318</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L63" t="n">
         <v>14.17999999999999</v>
@@ -3632,7 +3654,7 @@
         <v>5.200000000000006</v>
       </c>
       <c r="K64" t="n">
-        <v>-14.28571428571425</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L64" t="n">
         <v>14.15999999999999</v>
@@ -3683,7 +3705,7 @@
         <v>5.200000000000006</v>
       </c>
       <c r="K65" t="n">
-        <v>-14.28571428571425</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L65" t="n">
         <v>14.14999999999999</v>
@@ -3734,7 +3756,7 @@
         <v>5.300000000000006</v>
       </c>
       <c r="K66" t="n">
-        <v>9.090909090909062</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L66" t="n">
         <v>14.12999999999999</v>
@@ -3785,7 +3807,7 @@
         <v>5.300000000000006</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>-59.99999999999957</v>
       </c>
       <c r="L67" t="n">
         <v>14.10999999999999</v>
@@ -3836,7 +3858,7 @@
         <v>5.400000000000006</v>
       </c>
       <c r="K68" t="n">
-        <v>-9.090909090909062</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L68" t="n">
         <v>14.07</v>
@@ -3887,7 +3909,7 @@
         <v>5.500000000000007</v>
       </c>
       <c r="K69" t="n">
-        <v>-39.99999999999996</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L69" t="n">
         <v>14.02</v>
@@ -3938,7 +3960,7 @@
         <v>5.500000000000007</v>
       </c>
       <c r="K70" t="n">
-        <v>-39.99999999999996</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L70" t="n">
         <v>13.97</v>
@@ -3989,7 +4011,7 @@
         <v>5.500000000000007</v>
       </c>
       <c r="K71" t="n">
-        <v>-55.55555555555542</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L71" t="n">
         <v>13.92</v>
@@ -4040,7 +4062,7 @@
         <v>5.600000000000007</v>
       </c>
       <c r="K72" t="n">
-        <v>-59.99999999999985</v>
+        <v>-100</v>
       </c>
       <c r="L72" t="n">
         <v>13.86</v>
@@ -4091,7 +4113,7 @@
         <v>5.600000000000007</v>
       </c>
       <c r="K73" t="n">
-        <v>-59.99999999999985</v>
+        <v>-100</v>
       </c>
       <c r="L73" t="n">
         <v>13.79</v>
@@ -4142,7 +4164,7 @@
         <v>5.600000000000007</v>
       </c>
       <c r="K74" t="n">
-        <v>-59.99999999999985</v>
+        <v>-100</v>
       </c>
       <c r="L74" t="n">
         <v>13.74999999999999</v>
@@ -4193,7 +4215,7 @@
         <v>5.600000000000007</v>
       </c>
       <c r="K75" t="n">
-        <v>-55.55555555555542</v>
+        <v>-100</v>
       </c>
       <c r="L75" t="n">
         <v>13.70999999999999</v>
@@ -4244,7 +4266,7 @@
         <v>5.900000000000007</v>
       </c>
       <c r="K76" t="n">
-        <v>-16.66666666666657</v>
+        <v>0</v>
       </c>
       <c r="L76" t="n">
         <v>13.70999999999999</v>
@@ -4295,7 +4317,7 @@
         <v>5.900000000000007</v>
       </c>
       <c r="K77" t="n">
-        <v>-16.66666666666657</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L77" t="n">
         <v>13.70999999999999</v>
@@ -4346,7 +4368,7 @@
         <v>6.100000000000009</v>
       </c>
       <c r="K78" t="n">
-        <v>-38.46153846153834</v>
+        <v>0</v>
       </c>
       <c r="L78" t="n">
         <v>13.69999999999999</v>
@@ -4397,7 +4419,7 @@
         <v>6.300000000000008</v>
       </c>
       <c r="K79" t="n">
-        <v>-46.66666666666651</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L79" t="n">
         <v>13.67999999999999</v>
@@ -4448,7 +4470,7 @@
         <v>6.300000000000008</v>
       </c>
       <c r="K80" t="n">
-        <v>-46.66666666666651</v>
+        <v>-24.99999999999989</v>
       </c>
       <c r="L80" t="n">
         <v>13.65999999999999</v>
@@ -4499,7 +4521,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K81" t="n">
-        <v>-29.41176470588231</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L81" t="n">
         <v>13.65999999999999</v>
@@ -4550,7 +4572,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K82" t="n">
-        <v>-29.41176470588231</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L82" t="n">
         <v>13.66999999999999</v>
@@ -4601,7 +4623,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K83" t="n">
-        <v>-37.50000000000006</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L83" t="n">
         <v>13.67999999999999</v>
@@ -4652,7 +4674,7 @@
         <v>6.500000000000007</v>
       </c>
       <c r="K84" t="n">
-        <v>-23.07692307692312</v>
+        <v>11.11111111111107</v>
       </c>
       <c r="L84" t="n">
         <v>13.68999999999999</v>
@@ -4754,7 +4776,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K86" t="n">
-        <v>-7.69230769230765</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L86" t="n">
         <v>13.69999999999999</v>
@@ -4805,7 +4827,7 @@
         <v>6.600000000000009</v>
       </c>
       <c r="K87" t="n">
-        <v>-7.69230769230765</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L87" t="n">
         <v>13.68999999999999</v>
@@ -4856,7 +4878,7 @@
         <v>6.80000000000001</v>
       </c>
       <c r="K88" t="n">
-        <v>-14.28571428571432</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L88" t="n">
         <v>13.68</v>
@@ -4907,7 +4929,7 @@
         <v>7.000000000000011</v>
       </c>
       <c r="K89" t="n">
-        <v>6.666666666666746</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L89" t="n">
         <v>13.71</v>
@@ -4958,7 +4980,7 @@
         <v>7.000000000000011</v>
       </c>
       <c r="K90" t="n">
-        <v>6.666666666666746</v>
+        <v>20.00000000000014</v>
       </c>
       <c r="L90" t="n">
         <v>13.74</v>
@@ -5060,7 +5082,7 @@
         <v>7.200000000000014</v>
       </c>
       <c r="K92" t="n">
-        <v>12.50000000000001</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L92" t="n">
         <v>13.75</v>
@@ -5111,7 +5133,7 @@
         <v>7.200000000000014</v>
       </c>
       <c r="K93" t="n">
-        <v>12.50000000000001</v>
+        <v>14.28571428571436</v>
       </c>
       <c r="L93" t="n">
         <v>13.76</v>
@@ -5162,7 +5184,7 @@
         <v>7.300000000000013</v>
       </c>
       <c r="K94" t="n">
-        <v>17.64705882352939</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L94" t="n">
         <v>13.78</v>
@@ -5213,7 +5235,7 @@
         <v>7.300000000000013</v>
       </c>
       <c r="K95" t="n">
-        <v>17.64705882352939</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L95" t="n">
         <v>13.79</v>
@@ -5264,7 +5286,7 @@
         <v>7.500000000000014</v>
       </c>
       <c r="K96" t="n">
-        <v>-12.50000000000001</v>
+        <v>-11.1111111111112</v>
       </c>
       <c r="L96" t="n">
         <v>13.78</v>
@@ -5315,7 +5337,7 @@
         <v>7.700000000000015</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L97" t="n">
         <v>13.79</v>
@@ -5366,7 +5388,7 @@
         <v>7.700000000000015</v>
       </c>
       <c r="K98" t="n">
-        <v>12.50000000000001</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L98" t="n">
         <v>13.82</v>
@@ -5417,7 +5439,7 @@
         <v>7.700000000000015</v>
       </c>
       <c r="K99" t="n">
-        <v>28.57142857142844</v>
+        <v>14.28571428571414</v>
       </c>
       <c r="L99" t="n">
         <v>13.83</v>
@@ -5468,7 +5490,7 @@
         <v>7.800000000000015</v>
       </c>
       <c r="K100" t="n">
-        <v>19.99999999999995</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L100" t="n">
         <v>13.83</v>
@@ -5519,7 +5541,7 @@
         <v>7.900000000000015</v>
       </c>
       <c r="K101" t="n">
-        <v>14.28571428571428</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L101" t="n">
         <v>13.85</v>
@@ -5570,7 +5592,7 @@
         <v>7.900000000000015</v>
       </c>
       <c r="K102" t="n">
-        <v>14.28571428571428</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L102" t="n">
         <v>13.86</v>
@@ -5621,7 +5643,7 @@
         <v>7.900000000000015</v>
       </c>
       <c r="K103" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>13.87</v>
@@ -5672,7 +5694,7 @@
         <v>8.000000000000014</v>
       </c>
       <c r="K104" t="n">
-        <v>19.99999999999995</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L104" t="n">
         <v>13.88</v>
@@ -5723,7 +5745,7 @@
         <v>8.000000000000014</v>
       </c>
       <c r="K105" t="n">
-        <v>14.28571428571418</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L105" t="n">
         <v>13.89</v>
@@ -5774,7 +5796,7 @@
         <v>8.000000000000014</v>
       </c>
       <c r="K106" t="n">
-        <v>14.28571428571418</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>13.92</v>
@@ -5825,7 +5847,7 @@
         <v>8.000000000000014</v>
       </c>
       <c r="K107" t="n">
-        <v>14.28571428571418</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>13.93</v>
@@ -5876,7 +5898,7 @@
         <v>8.100000000000014</v>
       </c>
       <c r="K108" t="n">
-        <v>23.07692307692306</v>
+        <v>0</v>
       </c>
       <c r="L108" t="n">
         <v>13.93</v>
@@ -5927,7 +5949,7 @@
         <v>8.100000000000014</v>
       </c>
       <c r="K109" t="n">
-        <v>9.090909090909033</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L109" t="n">
         <v>13.93</v>
@@ -5978,7 +6000,7 @@
         <v>8.100000000000014</v>
       </c>
       <c r="K110" t="n">
-        <v>9.090909090909033</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>13.94</v>
@@ -6029,7 +6051,7 @@
         <v>8.100000000000014</v>
       </c>
       <c r="K111" t="n">
-        <v>20.00000000000007</v>
+        <v>0</v>
       </c>
       <c r="L111" t="n">
         <v>13.94</v>
@@ -6080,7 +6102,7 @@
         <v>8.400000000000013</v>
       </c>
       <c r="K112" t="n">
-        <v>33.33333333333324</v>
+        <v>60</v>
       </c>
       <c r="L112" t="n">
         <v>13.97</v>
@@ -6131,7 +6153,7 @@
         <v>8.500000000000014</v>
       </c>
       <c r="K113" t="n">
-        <v>38.46153846153844</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L113" t="n">
         <v>14.01</v>
@@ -6182,7 +6204,7 @@
         <v>8.700000000000014</v>
       </c>
       <c r="K114" t="n">
-        <v>42.85714285714282</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L114" t="n">
         <v>14.06</v>
@@ -6233,7 +6255,7 @@
         <v>9.100000000000014</v>
       </c>
       <c r="K115" t="n">
-        <v>11.11111111111107</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L115" t="n">
         <v>14.07</v>
@@ -6284,7 +6306,7 @@
         <v>9.100000000000014</v>
       </c>
       <c r="K116" t="n">
-        <v>25.00000000000003</v>
+        <v>9.090909090909062</v>
       </c>
       <c r="L116" t="n">
         <v>14.08</v>
@@ -6335,7 +6357,7 @@
         <v>9.300000000000015</v>
       </c>
       <c r="K117" t="n">
-        <v>25.00000000000003</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>14.11</v>
@@ -6386,7 +6408,7 @@
         <v>9.500000000000016</v>
       </c>
       <c r="K118" t="n">
-        <v>11.11111111111107</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L118" t="n">
         <v>14.13</v>
@@ -6437,7 +6459,7 @@
         <v>9.500000000000016</v>
       </c>
       <c r="K119" t="n">
-        <v>11.11111111111107</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L119" t="n">
         <v>14.15</v>
@@ -6488,7 +6510,7 @@
         <v>9.700000000000017</v>
       </c>
       <c r="K120" t="n">
-        <v>26.31578947368418</v>
+        <v>24.99999999999997</v>
       </c>
       <c r="L120" t="n">
         <v>14.19</v>
@@ -6539,7 +6561,7 @@
         <v>9.800000000000017</v>
       </c>
       <c r="K121" t="n">
-        <v>26.31578947368418</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L121" t="n">
         <v>14.24</v>
@@ -6590,7 +6612,7 @@
         <v>10.00000000000002</v>
       </c>
       <c r="K122" t="n">
-        <v>14.28571428571421</v>
+        <v>-6.666666666666746</v>
       </c>
       <c r="L122" t="n">
         <v>14.24</v>
@@ -6641,7 +6663,7 @@
         <v>10.20000000000002</v>
       </c>
       <c r="K123" t="n">
-        <v>21.73913043478257</v>
+        <v>-6.666666666666619</v>
       </c>
       <c r="L123" t="n">
         <v>14.25</v>
@@ -6692,7 +6714,7 @@
         <v>10.20000000000002</v>
       </c>
       <c r="K124" t="n">
-        <v>18.18181818181816</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L124" t="n">
         <v>14.24</v>
@@ -6743,7 +6765,7 @@
         <v>10.30000000000002</v>
       </c>
       <c r="K125" t="n">
-        <v>13.04347826086957</v>
+        <v>16.66666666666669</v>
       </c>
       <c r="L125" t="n">
         <v>14.26</v>
@@ -6794,7 +6816,7 @@
         <v>10.40000000000002</v>
       </c>
       <c r="K126" t="n">
-        <v>16.66666666666665</v>
+        <v>9.090909090909033</v>
       </c>
       <c r="L126" t="n">
         <v>14.29</v>
@@ -6845,7 +6867,7 @@
         <v>10.70000000000002</v>
       </c>
       <c r="K127" t="n">
-        <v>3.703703703703684</v>
+        <v>0</v>
       </c>
       <c r="L127" t="n">
         <v>14.27</v>
@@ -6896,7 +6918,7 @@
         <v>10.90000000000002</v>
       </c>
       <c r="K128" t="n">
-        <v>14.28571428571427</v>
+        <v>14.28571428571432</v>
       </c>
       <c r="L128" t="n">
         <v>14.29</v>
@@ -6947,7 +6969,7 @@
         <v>11.00000000000002</v>
       </c>
       <c r="K129" t="n">
-        <v>10.34482758620683</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L129" t="n">
         <v>14.3</v>
@@ -6998,7 +7020,7 @@
         <v>11.10000000000002</v>
       </c>
       <c r="K130" t="n">
-        <v>6.666666666666628</v>
+        <v>-23.07692307692306</v>
       </c>
       <c r="L130" t="n">
         <v>14.28</v>
@@ -7049,7 +7071,7 @@
         <v>11.20000000000002</v>
       </c>
       <c r="K131" t="n">
-        <v>3.225806451612884</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L131" t="n">
         <v>14.24</v>
@@ -7100,7 +7122,7 @@
         <v>11.20000000000002</v>
       </c>
       <c r="K132" t="n">
-        <v>-7.142857142857098</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L132" t="n">
         <v>14.22</v>
@@ -7151,7 +7173,7 @@
         <v>11.20000000000002</v>
       </c>
       <c r="K133" t="n">
-        <v>-11.11111111111111</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L133" t="n">
         <v>14.18</v>
@@ -7202,7 +7224,7 @@
         <v>11.20000000000002</v>
       </c>
       <c r="K134" t="n">
-        <v>-19.99999999999994</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L134" t="n">
         <v>14.14</v>
@@ -7253,7 +7275,7 @@
         <v>11.30000000000002</v>
       </c>
       <c r="K135" t="n">
-        <v>-9.090909090909033</v>
+        <v>-55.55555555555542</v>
       </c>
       <c r="L135" t="n">
         <v>14.1</v>
@@ -7304,7 +7326,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K136" t="n">
-        <v>-13.04347826086948</v>
+        <v>-42.85714285714264</v>
       </c>
       <c r="L136" t="n">
         <v>14.04</v>
@@ -7355,7 +7377,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K137" t="n">
-        <v>-23.80952380952375</v>
+        <v>-100</v>
       </c>
       <c r="L137" t="n">
         <v>14.01</v>
@@ -7406,7 +7428,7 @@
         <v>11.40000000000002</v>
       </c>
       <c r="K138" t="n">
-        <v>-15.78947368421044</v>
+        <v>-100</v>
       </c>
       <c r="L138" t="n">
         <v>13.96</v>
@@ -7457,7 +7479,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K139" t="n">
-        <v>-4.761904761904738</v>
+        <v>-20</v>
       </c>
       <c r="L139" t="n">
         <v>13.94</v>
@@ -7508,7 +7530,7 @@
         <v>11.60000000000002</v>
       </c>
       <c r="K140" t="n">
-        <v>-15.78947368421055</v>
+        <v>0</v>
       </c>
       <c r="L140" t="n">
         <v>13.93</v>
@@ -7559,7 +7581,7 @@
         <v>11.80000000000002</v>
       </c>
       <c r="K141" t="n">
-        <v>-10.00000000000004</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L141" t="n">
         <v>13.95</v>
@@ -7610,7 +7632,7 @@
         <v>11.90000000000002</v>
       </c>
       <c r="K142" t="n">
-        <v>-5.263157894736822</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L142" t="n">
         <v>13.96</v>
@@ -7661,7 +7683,7 @@
         <v>11.90000000000002</v>
       </c>
       <c r="K143" t="n">
-        <v>-17.64705882352946</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L143" t="n">
         <v>13.97</v>
@@ -7712,7 +7734,7 @@
         <v>12.00000000000002</v>
       </c>
       <c r="K144" t="n">
-        <v>-22.22222222222225</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L144" t="n">
         <v>13.97</v>
@@ -7763,7 +7785,7 @@
         <v>12.10000000000002</v>
       </c>
       <c r="K145" t="n">
-        <v>-11.11111111111118</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L145" t="n">
         <v>13.99</v>
@@ -7814,7 +7836,7 @@
         <v>12.30000000000002</v>
       </c>
       <c r="K146" t="n">
-        <v>-26.31578947368423</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L146" t="n">
         <v>14</v>
@@ -7865,7 +7887,7 @@
         <v>12.40000000000002</v>
       </c>
       <c r="K147" t="n">
-        <v>-5.882352941176458</v>
+        <v>20</v>
       </c>
       <c r="L147" t="n">
         <v>14.02</v>
@@ -7916,7 +7938,7 @@
         <v>12.40000000000002</v>
       </c>
       <c r="K148" t="n">
-        <v>-20.0000000000001</v>
+        <v>0</v>
       </c>
       <c r="L148" t="n">
         <v>14.04</v>
@@ -7967,7 +7989,7 @@
         <v>12.40000000000002</v>
       </c>
       <c r="K149" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L149" t="n">
         <v>14.04</v>
@@ -8018,7 +8040,7 @@
         <v>12.50000000000002</v>
       </c>
       <c r="K150" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L150" t="n">
         <v>14.03</v>
@@ -8069,7 +8091,7 @@
         <v>12.50000000000002</v>
       </c>
       <c r="K151" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L151" t="n">
         <v>14</v>
@@ -8120,7 +8142,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L152" t="n">
         <v>13.99</v>
@@ -8222,7 +8244,7 @@
         <v>12.60000000000002</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L154" t="n">
         <v>13.98</v>
@@ -8324,7 +8346,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K156" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L156" t="n">
         <v>13.96</v>
@@ -8375,7 +8397,7 @@
         <v>12.70000000000002</v>
       </c>
       <c r="K157" t="n">
-        <v>7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L157" t="n">
         <v>13.95</v>
@@ -8426,7 +8448,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K158" t="n">
-        <v>14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L158" t="n">
         <v>13.95</v>
@@ -8477,7 +8499,7 @@
         <v>12.80000000000001</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>13.95</v>
@@ -8528,7 +8550,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K160" t="n">
-        <v>7.692307692307693</v>
+        <v>50</v>
       </c>
       <c r="L160" t="n">
         <v>13.97</v>
@@ -8579,7 +8601,7 @@
         <v>12.90000000000001</v>
       </c>
       <c r="K161" t="n">
-        <v>-9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L161" t="n">
         <v>13.99</v>
@@ -8630,7 +8652,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K162" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L162" t="n">
         <v>14.01</v>
@@ -8681,7 +8703,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>9.090909090909092</v>
+        <v>50</v>
       </c>
       <c r="L163" t="n">
         <v>14.03</v>
@@ -8732,7 +8754,7 @@
         <v>13.00000000000001</v>
       </c>
       <c r="K164" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L164" t="n">
         <v>14.04999999999999</v>
@@ -8783,7 +8805,7 @@
         <v>13.10000000000002</v>
       </c>
       <c r="K165" t="n">
-        <v>20.00000000000014</v>
+        <v>100</v>
       </c>
       <c r="L165" t="n">
         <v>14.08999999999999</v>
@@ -8834,7 +8856,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K166" t="n">
-        <v>33.3333333333332</v>
+        <v>59.99999999999957</v>
       </c>
       <c r="L166" t="n">
         <v>14.11999999999999</v>
@@ -8885,7 +8907,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K167" t="n">
-        <v>24.99999999999989</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L167" t="n">
         <v>14.14999999999999</v>
@@ -8936,7 +8958,7 @@
         <v>13.20000000000002</v>
       </c>
       <c r="K168" t="n">
-        <v>24.99999999999989</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L168" t="n">
         <v>14.16999999999999</v>
@@ -8987,7 +9009,7 @@
         <v>13.30000000000002</v>
       </c>
       <c r="K169" t="n">
-        <v>11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L169" t="n">
         <v>14.17999999999999</v>
@@ -9038,7 +9060,7 @@
         <v>13.30000000000002</v>
       </c>
       <c r="K170" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L170" t="n">
         <v>14.17999999999999</v>
@@ -9089,7 +9111,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K171" t="n">
-        <v>33.3333333333332</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>14.18999999999999</v>
@@ -9140,7 +9162,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K172" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L172" t="n">
         <v>14.18999999999999</v>
@@ -9191,7 +9213,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K173" t="n">
-        <v>24.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L173" t="n">
         <v>14.18999999999999</v>
@@ -9242,7 +9264,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K174" t="n">
-        <v>24.99999999999989</v>
+        <v>-33.33333333333373</v>
       </c>
       <c r="L174" t="n">
         <v>14.18999999999999</v>
@@ -9293,7 +9315,7 @@
         <v>13.40000000000002</v>
       </c>
       <c r="K175" t="n">
-        <v>42.85714285714264</v>
+        <v>0</v>
       </c>
       <c r="L175" t="n">
         <v>14.17999999999999</v>
@@ -9344,7 +9366,7 @@
         <v>13.50000000000002</v>
       </c>
       <c r="K176" t="n">
-        <v>24.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L176" t="n">
         <v>14.16999999999999</v>
@@ -9395,7 +9417,7 @@
         <v>13.50000000000002</v>
       </c>
       <c r="K177" t="n">
-        <v>24.99999999999989</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L177" t="n">
         <v>14.15999999999999</v>
@@ -9446,7 +9468,7 @@
         <v>13.60000000000002</v>
       </c>
       <c r="K178" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L178" t="n">
         <v>14.15999999999999</v>
@@ -9497,7 +9519,7 @@
         <v>13.60000000000002</v>
       </c>
       <c r="K179" t="n">
-        <v>24.99999999999989</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L179" t="n">
         <v>14.16999999999999</v>
@@ -9548,7 +9570,7 @@
         <v>13.60000000000002</v>
       </c>
       <c r="K180" t="n">
-        <v>14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L180" t="n">
         <v>14.17999999999999</v>
@@ -9599,7 +9621,7 @@
         <v>13.60000000000002</v>
       </c>
       <c r="K181" t="n">
-        <v>14.28571428571421</v>
+        <v>0</v>
       </c>
       <c r="L181" t="n">
         <v>14.17999999999999</v>
@@ -9650,7 +9672,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K182" t="n">
-        <v>14.28571428571443</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L182" t="n">
         <v>14.18999999999999</v>
@@ -9701,7 +9723,7 @@
         <v>13.70000000000002</v>
       </c>
       <c r="K183" t="n">
-        <v>14.28571428571443</v>
+        <v>33.33333333333373</v>
       </c>
       <c r="L183" t="n">
         <v>14.19999999999999</v>
@@ -9752,7 +9774,7 @@
         <v>13.80000000000002</v>
       </c>
       <c r="K184" t="n">
-        <v>25.00000000000006</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L184" t="n">
         <v>14.21999999999999</v>
@@ -9803,7 +9825,7 @@
         <v>14.10000000000002</v>
       </c>
       <c r="K185" t="n">
-        <v>39.99999999999986</v>
+        <v>100</v>
       </c>
       <c r="L185" t="n">
         <v>14.26999999999999</v>
@@ -9854,7 +9876,7 @@
         <v>14.20000000000002</v>
       </c>
       <c r="K186" t="n">
-        <v>40.00000000000011</v>
+        <v>71.4285714285715</v>
       </c>
       <c r="L186" t="n">
         <v>14.31999999999999</v>
@@ -9905,7 +9927,7 @@
         <v>14.50000000000001</v>
       </c>
       <c r="K187" t="n">
-        <v>7.692307692307819</v>
+        <v>11.11111111111129</v>
       </c>
       <c r="L187" t="n">
         <v>14.33999999999999</v>
@@ -9956,7 +9978,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K188" t="n">
-        <v>25.00000000000008</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L188" t="n">
         <v>14.38</v>
@@ -10007,7 +10029,7 @@
         <v>14.80000000000001</v>
       </c>
       <c r="K189" t="n">
-        <v>33.33333333333341</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L189" t="n">
         <v>14.42</v>
@@ -10058,7 +10080,7 @@
         <v>14.90000000000001</v>
       </c>
       <c r="K190" t="n">
-        <v>25.00000000000008</v>
+        <v>23.07692307692318</v>
       </c>
       <c r="L190" t="n">
         <v>14.45</v>
@@ -10109,7 +10131,7 @@
         <v>15.10000000000001</v>
       </c>
       <c r="K191" t="n">
-        <v>5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L191" t="n">
         <v>14.46</v>
@@ -10160,7 +10182,7 @@
         <v>15.10000000000001</v>
       </c>
       <c r="K192" t="n">
-        <v>5.882352941176569</v>
+        <v>0</v>
       </c>
       <c r="L192" t="n">
         <v>14.46</v>
@@ -10211,7 +10233,7 @@
         <v>15.40000000000001</v>
       </c>
       <c r="K193" t="n">
-        <v>20.00000000000007</v>
+        <v>12.5</v>
       </c>
       <c r="L193" t="n">
         <v>14.49</v>
@@ -10262,7 +10284,7 @@
         <v>15.60000000000001</v>
       </c>
       <c r="K194" t="n">
-        <v>9.090909090909165</v>
+        <v>-20</v>
       </c>
       <c r="L194" t="n">
         <v>14.49</v>
@@ -10313,7 +10335,7 @@
         <v>15.80000000000001</v>
       </c>
       <c r="K195" t="n">
-        <v>16.66666666666673</v>
+        <v>0</v>
       </c>
       <c r="L195" t="n">
         <v>14.48</v>
@@ -10364,7 +10386,7 @@
         <v>16.00000000000001</v>
       </c>
       <c r="K196" t="n">
-        <v>12.00000000000007</v>
+        <v>6.666666666666675</v>
       </c>
       <c r="L196" t="n">
         <v>14.46</v>
@@ -10415,7 +10437,7 @@
         <v>16.10000000000001</v>
       </c>
       <c r="K197" t="n">
-        <v>15.38461538461544</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L197" t="n">
         <v>14.48</v>
@@ -10466,7 +10488,7 @@
         <v>16.10000000000001</v>
       </c>
       <c r="K198" t="n">
-        <v>12.00000000000006</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L198" t="n">
         <v>14.47</v>
@@ -10517,7 +10539,7 @@
         <v>16.10000000000001</v>
       </c>
       <c r="K199" t="n">
-        <v>12.00000000000006</v>
+        <v>0</v>
       </c>
       <c r="L199" t="n">
         <v>14.46</v>
@@ -10568,7 +10590,7 @@
         <v>16.30000000000001</v>
       </c>
       <c r="K200" t="n">
-        <v>3.703703703703767</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>14.44</v>
@@ -10619,7 +10641,7 @@
         <v>16.30000000000001</v>
       </c>
       <c r="K201" t="n">
-        <v>3.703703703703767</v>
+        <v>0</v>
       </c>
       <c r="L201" t="n">
         <v>14.44</v>
@@ -10670,7 +10692,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K202" t="n">
-        <v>-3.703703703703767</v>
+        <v>-40.00000000000011</v>
       </c>
       <c r="L202" t="n">
         <v>14.43</v>
@@ -10721,7 +10743,7 @@
         <v>16.40000000000001</v>
       </c>
       <c r="K203" t="n">
-        <v>-3.703703703703767</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L203" t="n">
         <v>14.39</v>
@@ -10772,7 +10794,7 @@
         <v>16.70000000000001</v>
       </c>
       <c r="K204" t="n">
-        <v>3.448275862068961</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L204" t="n">
         <v>14.4</v>
@@ -10823,7 +10845,7 @@
         <v>16.70000000000001</v>
       </c>
       <c r="K205" t="n">
-        <v>-7.692307692307682</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L205" t="n">
         <v>14.39</v>
@@ -10874,7 +10896,7 @@
         <v>16.80000000000001</v>
       </c>
       <c r="K206" t="n">
-        <v>-7.692307692307676</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L206" t="n">
         <v>14.39</v>
@@ -10925,7 +10947,7 @@
         <v>16.90000000000001</v>
       </c>
       <c r="K207" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L207" t="n">
         <v>14.37</v>
@@ -10976,7 +10998,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K208" t="n">
-        <v>-4.347826086956508</v>
+        <v>0</v>
       </c>
       <c r="L208" t="n">
         <v>14.37</v>
@@ -11027,7 +11049,7 @@
         <v>17.10000000000001</v>
       </c>
       <c r="K209" t="n">
-        <v>-4.347826086956508</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L209" t="n">
         <v>14.37</v>
@@ -11078,7 +11100,7 @@
         <v>17.30000000000001</v>
       </c>
       <c r="K210" t="n">
-        <v>-8.333333333333309</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>14.37</v>
@@ -11129,7 +11151,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K211" t="n">
-        <v>8.333333333333309</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L211" t="n">
         <v>14.39</v>
@@ -11180,7 +11202,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K212" t="n">
-        <v>8.333333333333309</v>
+        <v>27.27272727272731</v>
       </c>
       <c r="L212" t="n">
         <v>14.42</v>
@@ -11231,7 +11253,7 @@
         <v>17.50000000000001</v>
       </c>
       <c r="K213" t="n">
-        <v>-4.761904761904746</v>
+        <v>0</v>
       </c>
       <c r="L213" t="n">
         <v>14.45</v>
@@ -11282,7 +11304,7 @@
         <v>17.70000000000001</v>
       </c>
       <c r="K214" t="n">
-        <v>-4.761904761904746</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L214" t="n">
         <v>14.43</v>
@@ -11333,7 +11355,7 @@
         <v>18.00000000000001</v>
       </c>
       <c r="K215" t="n">
-        <v>0</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L215" t="n">
         <v>14.44</v>
@@ -11384,7 +11406,7 @@
         <v>18.10000000000001</v>
       </c>
       <c r="K216" t="n">
-        <v>4.761904761904741</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L216" t="n">
         <v>14.45</v>
@@ -11486,7 +11508,7 @@
         <v>18.20000000000001</v>
       </c>
       <c r="K218" t="n">
-        <v>4.761904761904741</v>
+        <v>9.090909090909076</v>
       </c>
       <c r="L218" t="n">
         <v>14.48</v>
@@ -11537,7 +11559,7 @@
         <v>18.40000000000001</v>
       </c>
       <c r="K219" t="n">
-        <v>-4.347826086956505</v>
+        <v>9.090909090909076</v>
       </c>
       <c r="L219" t="n">
         <v>14.47</v>
@@ -11588,7 +11610,7 @@
         <v>18.50000000000001</v>
       </c>
       <c r="K220" t="n">
-        <v>9.090909090909062</v>
+        <v>0</v>
       </c>
       <c r="L220" t="n">
         <v>14.49</v>
@@ -11639,7 +11661,7 @@
         <v>18.70000000000001</v>
       </c>
       <c r="K221" t="n">
-        <v>16.66666666666662</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L221" t="n">
         <v>14.51</v>
@@ -11690,7 +11712,7 @@
         <v>18.8</v>
       </c>
       <c r="K222" t="n">
-        <v>16.66666666666671</v>
+        <v>7.692307692307702</v>
       </c>
       <c r="L222" t="n">
         <v>14.52</v>
@@ -11741,7 +11763,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K223" t="n">
-        <v>20.00000000000003</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L223" t="n">
         <v>14.54</v>
@@ -11792,7 +11814,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K224" t="n">
-        <v>9.090909090909076</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L224" t="n">
         <v>14.57999999999999</v>
@@ -11843,7 +11865,7 @@
         <v>18.90000000000001</v>
       </c>
       <c r="K225" t="n">
-        <v>9.090909090909076</v>
+        <v>25</v>
       </c>
       <c r="L225" t="n">
         <v>14.58999999999999</v>
@@ -11894,7 +11916,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K226" t="n">
-        <v>18.18181818181823</v>
+        <v>33.33333333333346</v>
       </c>
       <c r="L226" t="n">
         <v>14.61999999999999</v>
@@ -11945,7 +11967,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K227" t="n">
-        <v>23.80952380952387</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L227" t="n">
         <v>14.65</v>
@@ -11996,7 +12018,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K228" t="n">
-        <v>15.78947368421061</v>
+        <v>66.66666666666697</v>
       </c>
       <c r="L228" t="n">
         <v>14.67</v>
@@ -12047,7 +12069,7 @@
         <v>19.00000000000001</v>
       </c>
       <c r="K229" t="n">
-        <v>15.78947368421061</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L229" t="n">
         <v>14.71</v>
@@ -12098,7 +12120,7 @@
         <v>19.10000000000001</v>
       </c>
       <c r="K230" t="n">
-        <v>22.22222222222218</v>
+        <v>0</v>
       </c>
       <c r="L230" t="n">
         <v>14.73</v>
@@ -12149,7 +12171,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K231" t="n">
-        <v>17.64705882352946</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L231" t="n">
         <v>14.74</v>
@@ -12200,7 +12222,7 @@
         <v>19.20000000000001</v>
       </c>
       <c r="K232" t="n">
-        <v>17.64705882352946</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L232" t="n">
         <v>14.76</v>
@@ -12251,7 +12273,7 @@
         <v>19.30000000000001</v>
       </c>
       <c r="K233" t="n">
-        <v>11.11111111111107</v>
+        <v>0</v>
       </c>
       <c r="L233" t="n">
         <v>14.76</v>
@@ -12302,7 +12324,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K234" t="n">
-        <v>29.41176470588231</v>
+        <v>20</v>
       </c>
       <c r="L234" t="n">
         <v>14.77</v>
@@ -12353,7 +12375,7 @@
         <v>19.40000000000001</v>
       </c>
       <c r="K235" t="n">
-        <v>14.2857142857143</v>
+        <v>0</v>
       </c>
       <c r="L235" t="n">
         <v>14.78</v>
@@ -12404,7 +12426,7 @@
         <v>19.50000000000001</v>
       </c>
       <c r="K236" t="n">
-        <v>14.28571428571418</v>
+        <v>-20</v>
       </c>
       <c r="L236" t="n">
         <v>14.77</v>
@@ -12455,7 +12477,7 @@
         <v>19.60000000000002</v>
       </c>
       <c r="K237" t="n">
-        <v>19.99999999999995</v>
+        <v>0</v>
       </c>
       <c r="L237" t="n">
         <v>14.77</v>
@@ -12506,7 +12528,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K238" t="n">
-        <v>6.666666666666611</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L238" t="n">
         <v>14.76</v>
@@ -12557,7 +12579,7 @@
         <v>19.70000000000002</v>
       </c>
       <c r="K239" t="n">
-        <v>23.07692307692286</v>
+        <v>0</v>
       </c>
       <c r="L239" t="n">
         <v>14.75</v>
@@ -12608,7 +12630,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K240" t="n">
-        <v>7.692307692307598</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L240" t="n">
         <v>14.74</v>
@@ -12659,7 +12681,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K241" t="n">
-        <v>-9.090909090908958</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L241" t="n">
         <v>14.72</v>
@@ -12710,7 +12732,7 @@
         <v>19.80000000000002</v>
       </c>
       <c r="K242" t="n">
-        <v>0</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L242" t="n">
         <v>14.69999999999999</v>
@@ -12761,7 +12783,7 @@
         <v>20.00000000000002</v>
       </c>
       <c r="K243" t="n">
-        <v>-27.27272727272688</v>
+        <v>-66.66666666666617</v>
       </c>
       <c r="L243" t="n">
         <v>14.67</v>
@@ -12812,7 +12834,7 @@
         <v>20.10000000000002</v>
       </c>
       <c r="K244" t="n">
-        <v>-16.66666666666647</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L244" t="n">
         <v>14.64</v>
@@ -12863,7 +12885,7 @@
         <v>20.20000000000002</v>
       </c>
       <c r="K245" t="n">
-        <v>-7.692307692307598</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L245" t="n">
         <v>14.61999999999999</v>
@@ -12914,7 +12936,7 @@
         <v>20.30000000000002</v>
       </c>
       <c r="K246" t="n">
-        <v>-23.07692307692293</v>
+        <v>-42.85714285714278</v>
       </c>
       <c r="L246" t="n">
         <v>14.59999999999999</v>
@@ -12965,7 +12987,7 @@
         <v>20.30000000000002</v>
       </c>
       <c r="K247" t="n">
-        <v>-23.07692307692293</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L247" t="n">
         <v>14.56999999999999</v>
@@ -13016,7 +13038,7 @@
         <v>20.50000000000002</v>
       </c>
       <c r="K248" t="n">
-        <v>-6.666666666666714</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>14.56999999999999</v>
@@ -13067,7 +13089,7 @@
         <v>20.60000000000002</v>
       </c>
       <c r="K249" t="n">
-        <v>0</v>
+        <v>25.00000000000011</v>
       </c>
       <c r="L249" t="n">
         <v>14.57999999999999</v>
@@ -13118,7 +13140,7 @@
         <v>20.90000000000002</v>
       </c>
       <c r="K250" t="n">
-        <v>-11.111111111111</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L250" t="n">
         <v>14.57</v>
@@ -13169,7 +13191,7 @@
         <v>21.00000000000002</v>
       </c>
       <c r="K251" t="n">
-        <v>-11.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="L251" t="n">
         <v>14.57</v>
@@ -13220,7 +13242,7 @@
         <v>21.10000000000002</v>
       </c>
       <c r="K252" t="n">
-        <v>-5.263157894736882</v>
+        <v>27.27272727272705</v>
       </c>
       <c r="L252" t="n">
         <v>14.57999999999999</v>
@@ -13271,7 +13293,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K253" t="n">
-        <v>-14.28571428571418</v>
+        <v>-7.69230769230764</v>
       </c>
       <c r="L253" t="n">
         <v>14.57999999999999</v>
@@ -13322,7 +13344,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K254" t="n">
-        <v>-19.99999999999995</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L254" t="n">
         <v>14.57</v>
@@ -13373,7 +13395,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K255" t="n">
-        <v>-19.99999999999995</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L255" t="n">
         <v>14.55</v>
@@ -13424,7 +13446,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K256" t="n">
-        <v>-15.78947368421042</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L256" t="n">
         <v>14.54</v>
@@ -13475,7 +13497,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K257" t="n">
-        <v>-22.22222222222219</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L257" t="n">
         <v>14.53</v>
@@ -13526,7 +13548,7 @@
         <v>21.40000000000002</v>
       </c>
       <c r="K258" t="n">
-        <v>-17.64705882352932</v>
+        <v>-50</v>
       </c>
       <c r="L258" t="n">
         <v>14.5</v>
@@ -13577,7 +13599,7 @@
         <v>21.60000000000002</v>
       </c>
       <c r="K259" t="n">
-        <v>-5.263157894736818</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L259" t="n">
         <v>14.48</v>
@@ -13628,7 +13650,7 @@
         <v>21.80000000000002</v>
       </c>
       <c r="K260" t="n">
-        <v>10.00000000000005</v>
+        <v>25.00000000000022</v>
       </c>
       <c r="L260" t="n">
         <v>14.51</v>
@@ -13679,7 +13701,7 @@
         <v>21.90000000000002</v>
       </c>
       <c r="K261" t="n">
-        <v>4.761904761904741</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>14.52</v>
@@ -13730,7 +13752,7 @@
         <v>22.10000000000002</v>
       </c>
       <c r="K262" t="n">
-        <v>-4.347826086956505</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L262" t="n">
         <v>14.5</v>
@@ -13781,7 +13803,7 @@
         <v>22.20000000000002</v>
       </c>
       <c r="K263" t="n">
-        <v>9.090909090909062</v>
+        <v>25</v>
       </c>
       <c r="L263" t="n">
         <v>14.52</v>
@@ -13832,7 +13854,7 @@
         <v>22.40000000000002</v>
       </c>
       <c r="K264" t="n">
-        <v>13.04347826086957</v>
+        <v>40.00000000000004</v>
       </c>
       <c r="L264" t="n">
         <v>14.56</v>
@@ -13883,7 +13905,7 @@
         <v>22.50000000000002</v>
       </c>
       <c r="K265" t="n">
-        <v>4.347826086956498</v>
+        <v>27.27272727272714</v>
       </c>
       <c r="L265" t="n">
         <v>14.59</v>
@@ -13934,7 +13956,7 @@
         <v>22.60000000000002</v>
       </c>
       <c r="K266" t="n">
-        <v>4.347826086956498</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L266" t="n">
         <v>14.61</v>
@@ -13985,7 +14007,7 @@
         <v>22.60000000000002</v>
       </c>
       <c r="K267" t="n">
-        <v>4.347826086956498</v>
+        <v>16.66666666666657</v>
       </c>
       <c r="L267" t="n">
         <v>14.63</v>
@@ -14036,7 +14058,7 @@
         <v>22.60000000000002</v>
       </c>
       <c r="K268" t="n">
-        <v>-4.761904761904734</v>
+        <v>0</v>
       </c>
       <c r="L268" t="n">
         <v>14.65</v>
@@ -14087,7 +14109,7 @@
         <v>22.90000000000002</v>
       </c>
       <c r="K269" t="n">
-        <v>4.347826086956498</v>
+        <v>9.090909090909017</v>
       </c>
       <c r="L269" t="n">
         <v>14.68</v>
@@ -14138,7 +14160,7 @@
         <v>22.90000000000002</v>
       </c>
       <c r="K270" t="n">
-        <v>19.99999999999998</v>
+        <v>20.00000000000004</v>
       </c>
       <c r="L270" t="n">
         <v>14.68999999999999</v>
@@ -14189,7 +14211,7 @@
         <v>23.00000000000002</v>
       </c>
       <c r="K271" t="n">
-        <v>10.00000000000005</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L271" t="n">
         <v>14.7</v>
@@ -14240,7 +14262,7 @@
         <v>23.00000000000002</v>
       </c>
       <c r="K272" t="n">
-        <v>5.263157894736921</v>
+        <v>25</v>
       </c>
       <c r="L272" t="n">
         <v>14.73</v>
@@ -14291,7 +14313,7 @@
         <v>23.10000000000002</v>
       </c>
       <c r="K273" t="n">
-        <v>29.41176470588231</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L273" t="n">
         <v>14.76</v>
@@ -14342,7 +14364,7 @@
         <v>23.10000000000002</v>
       </c>
       <c r="K274" t="n">
-        <v>29.41176470588231</v>
+        <v>33.33333333333343</v>
       </c>
       <c r="L274" t="n">
         <v>14.77</v>
@@ -14393,7 +14415,7 @@
         <v>23.40000000000002</v>
       </c>
       <c r="K275" t="n">
-        <v>39.99999999999994</v>
+        <v>75.00000000000023</v>
       </c>
       <c r="L275" t="n">
         <v>14.82</v>
@@ -14444,7 +14466,7 @@
         <v>23.50000000000002</v>
       </c>
       <c r="K276" t="n">
-        <v>42.85714285714285</v>
+        <v>77.77777777777803</v>
       </c>
       <c r="L276" t="n">
         <v>14.89</v>
@@ -14495,7 +14517,7 @@
         <v>23.50000000000002</v>
       </c>
       <c r="K277" t="n">
-        <v>42.85714285714285</v>
+        <v>77.77777777777803</v>
       </c>
       <c r="L277" t="n">
         <v>14.96</v>
@@ -14546,7 +14568,7 @@
         <v>23.80000000000002</v>
       </c>
       <c r="K278" t="n">
-        <v>50</v>
+        <v>77.77777777777813</v>
       </c>
       <c r="L278" t="n">
         <v>15.06</v>
@@ -14597,7 +14619,7 @@
         <v>24.40000000000002</v>
       </c>
       <c r="K279" t="n">
-        <v>14.2857142857143</v>
+        <v>6.666666666666658</v>
       </c>
       <c r="L279" t="n">
         <v>15.07</v>
@@ -14648,7 +14670,7 @@
         <v>24.40000000000002</v>
       </c>
       <c r="K280" t="n">
-        <v>7.692307692307661</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L280" t="n">
         <v>15.08</v>
@@ -14699,7 +14721,7 @@
         <v>24.50000000000002</v>
       </c>
       <c r="K281" t="n">
-        <v>15.38461538461539</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L281" t="n">
         <v>15.11</v>
@@ -14750,7 +14772,7 @@
         <v>24.70000000000002</v>
       </c>
       <c r="K282" t="n">
-        <v>30.76923076923074</v>
+        <v>25</v>
       </c>
       <c r="L282" t="n">
         <v>15.16</v>
@@ -14801,7 +14823,7 @@
         <v>24.70000000000002</v>
       </c>
       <c r="K283" t="n">
-        <v>27.99999999999996</v>
+        <v>25</v>
       </c>
       <c r="L283" t="n">
         <v>15.2</v>
@@ -14852,7 +14874,7 @@
         <v>24.90000000000003</v>
       </c>
       <c r="K284" t="n">
-        <v>11.99999999999992</v>
+        <v>-6.666666666666611</v>
       </c>
       <c r="L284" t="n">
         <v>15.22</v>
@@ -14903,7 +14925,7 @@
         <v>25.10000000000003</v>
       </c>
       <c r="K285" t="n">
-        <v>23.07692307692306</v>
+        <v>0</v>
       </c>
       <c r="L285" t="n">
         <v>15.23</v>
@@ -14954,7 +14976,7 @@
         <v>25.20000000000003</v>
       </c>
       <c r="K286" t="n">
-        <v>23.07692307692299</v>
+        <v>-5.88235294117652</v>
       </c>
       <c r="L286" t="n">
         <v>15.22</v>
@@ -15005,7 +15027,7 @@
         <v>25.30000000000003</v>
       </c>
       <c r="K287" t="n">
-        <v>25.92592592592587</v>
+        <v>-19.99999999999974</v>
       </c>
       <c r="L287" t="n">
         <v>15.22</v>
@@ -15056,7 +15078,7 @@
         <v>25.30000000000003</v>
       </c>
       <c r="K288" t="n">
-        <v>25.92592592592587</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L288" t="n">
         <v>15.19</v>
@@ -15107,7 +15129,7 @@
         <v>25.30000000000003</v>
       </c>
       <c r="K289" t="n">
-        <v>16.66666666666662</v>
+        <v>33.33333333333294</v>
       </c>
       <c r="L289" t="n">
         <v>15.22</v>
@@ -15158,7 +15180,7 @@
         <v>25.60000000000003</v>
       </c>
       <c r="K290" t="n">
-        <v>25.92592592592584</v>
+        <v>45.45454545454511</v>
       </c>
       <c r="L290" t="n">
         <v>15.28</v>
@@ -15209,7 +15231,7 @@
         <v>25.70000000000003</v>
       </c>
       <c r="K291" t="n">
-        <v>33.33333333333316</v>
+        <v>39.99999999999957</v>
       </c>
       <c r="L291" t="n">
         <v>15.34</v>
@@ -15260,7 +15282,7 @@
         <v>25.80000000000003</v>
       </c>
       <c r="K292" t="n">
-        <v>28.57142857142842</v>
+        <v>27.27272727272696</v>
       </c>
       <c r="L292" t="n">
         <v>15.37</v>
@@ -15311,7 +15333,7 @@
         <v>26.00000000000003</v>
       </c>
       <c r="K293" t="n">
-        <v>17.24137931034477</v>
+        <v>27.27272727272722</v>
       </c>
       <c r="L293" t="n">
         <v>15.38</v>
@@ -15362,7 +15384,7 @@
         <v>26.10000000000003</v>
       </c>
       <c r="K294" t="n">
-        <v>19.99999999999994</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L294" t="n">
         <v>15.42</v>
@@ -15413,7 +15435,7 @@
         <v>26.20000000000003</v>
       </c>
       <c r="K295" t="n">
-        <v>7.142857142857152</v>
+        <v>20.00000000000011</v>
       </c>
       <c r="L295" t="n">
         <v>15.43</v>
@@ -15566,7 +15588,7 @@
         <v>26.30000000000003</v>
       </c>
       <c r="K298" t="n">
-        <v>-11.99999999999989</v>
+        <v>0</v>
       </c>
       <c r="L298" t="n">
         <v>15.44</v>
@@ -15617,7 +15639,7 @@
         <v>26.40000000000003</v>
       </c>
       <c r="K299" t="n">
-        <v>19.99999999999988</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L299" t="n">
         <v>15.45</v>
@@ -15668,7 +15690,7 @@
         <v>26.50000000000004</v>
       </c>
       <c r="K300" t="n">
-        <v>14.28571428571421</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L300" t="n">
         <v>15.42</v>
@@ -15719,7 +15741,7 @@
         <v>26.50000000000004</v>
       </c>
       <c r="K301" t="n">
-        <v>9.999999999999982</v>
+        <v>-42.85714285714253</v>
       </c>
       <c r="L301" t="n">
         <v>15.38</v>
@@ -15770,7 +15792,7 @@
         <v>26.70000000000004</v>
       </c>
       <c r="K302" t="n">
-        <v>-9.999999999999982</v>
+        <v>-42.85714285714256</v>
       </c>
       <c r="L302" t="n">
         <v>15.33</v>
@@ -15821,7 +15843,7 @@
         <v>26.70000000000004</v>
       </c>
       <c r="K303" t="n">
-        <v>-9.999999999999982</v>
+        <v>-66.66666666666578</v>
       </c>
       <c r="L303" t="n">
         <v>15.3</v>
@@ -15872,7 +15894,7 @@
         <v>26.80000000000004</v>
       </c>
       <c r="K304" t="n">
-        <v>5.263157894736787</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L304" t="n">
         <v>15.27</v>
@@ -15923,7 +15945,7 @@
         <v>26.90000000000004</v>
       </c>
       <c r="K305" t="n">
-        <v>-11.1111111111111</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L305" t="n">
         <v>15.24</v>
@@ -15974,7 +15996,7 @@
         <v>27.10000000000004</v>
       </c>
       <c r="K306" t="n">
-        <v>-15.78947368421039</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L306" t="n">
         <v>15.2</v>
@@ -16025,7 +16047,7 @@
         <v>27.30000000000004</v>
       </c>
       <c r="K307" t="n">
-        <v>-10.00000000000002</v>
+        <v>-19.99999999999996</v>
       </c>
       <c r="L307" t="n">
         <v>15.18</v>
@@ -16076,7 +16098,7 @@
         <v>27.30000000000004</v>
       </c>
       <c r="K308" t="n">
-        <v>-10.00000000000002</v>
+        <v>-33.3333333333332</v>
       </c>
       <c r="L308" t="n">
         <v>15.16</v>
@@ -16127,7 +16149,7 @@
         <v>27.30000000000004</v>
       </c>
       <c r="K309" t="n">
-        <v>-10.00000000000002</v>
+        <v>-25</v>
       </c>
       <c r="L309" t="n">
         <v>15.13</v>
@@ -16178,7 +16200,7 @@
         <v>27.30000000000004</v>
       </c>
       <c r="K310" t="n">
-        <v>-29.41176470588218</v>
+        <v>-25</v>
       </c>
       <c r="L310" t="n">
         <v>15.10999999999999</v>
@@ -16229,7 +16251,7 @@
         <v>27.30000000000004</v>
       </c>
       <c r="K311" t="n">
-        <v>-37.49999999999978</v>
+        <v>0</v>
       </c>
       <c r="L311" t="n">
         <v>15.08999999999999</v>
@@ -16280,7 +16302,7 @@
         <v>27.40000000000004</v>
       </c>
       <c r="K312" t="n">
-        <v>-37.49999999999978</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L312" t="n">
         <v>15.07999999999999</v>
@@ -16331,7 +16353,7 @@
         <v>27.50000000000004</v>
       </c>
       <c r="K313" t="n">
-        <v>-19.9999999999999</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L313" t="n">
         <v>15.07999999999999</v>
@@ -16382,7 +16404,7 @@
         <v>27.50000000000004</v>
       </c>
       <c r="K314" t="n">
-        <v>-28.57142857142833</v>
+        <v>0</v>
       </c>
       <c r="L314" t="n">
         <v>15.06999999999999</v>
@@ -16433,7 +16455,7 @@
         <v>27.70000000000005</v>
       </c>
       <c r="K315" t="n">
-        <v>-6.666666666666579</v>
+        <v>66.66666666666617</v>
       </c>
       <c r="L315" t="n">
         <v>15.08999999999999</v>
@@ -16484,7 +16506,7 @@
         <v>27.90000000000005</v>
       </c>
       <c r="K316" t="n">
-        <v>-12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L316" t="n">
         <v>15.10999999999999</v>
@@ -16535,7 +16557,7 @@
         <v>27.90000000000005</v>
       </c>
       <c r="K317" t="n">
-        <v>-12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L317" t="n">
         <v>15.10999999999999</v>
@@ -16586,7 +16608,7 @@
         <v>27.90000000000005</v>
       </c>
       <c r="K318" t="n">
-        <v>-12.49999999999994</v>
+        <v>0</v>
       </c>
       <c r="L318" t="n">
         <v>15.10999999999999</v>
@@ -16637,7 +16659,7 @@
         <v>27.90000000000005</v>
       </c>
       <c r="K319" t="n">
-        <v>-19.99999999999986</v>
+        <v>0</v>
       </c>
       <c r="L319" t="n">
         <v>15.10999999999999</v>
@@ -16688,7 +16710,7 @@
         <v>27.90000000000005</v>
       </c>
       <c r="K320" t="n">
-        <v>-14.28571428571423</v>
+        <v>0</v>
       </c>
       <c r="L320" t="n">
         <v>15.10999999999999</v>
@@ -16739,7 +16761,7 @@
         <v>28.00000000000005</v>
       </c>
       <c r="K321" t="n">
-        <v>-6.666666666666698</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L321" t="n">
         <v>15.11999999999999</v>
@@ -16892,7 +16914,7 @@
         <v>28.20000000000005</v>
       </c>
       <c r="K324" t="n">
-        <v>-14.28571428571411</v>
+        <v>-59.99999999999929</v>
       </c>
       <c r="L324" t="n">
         <v>15.11999999999999</v>
@@ -16943,7 +16965,7 @@
         <v>28.30000000000005</v>
       </c>
       <c r="K325" t="n">
-        <v>-14.28571428571411</v>
+        <v>-49.99999999999911</v>
       </c>
       <c r="L325" t="n">
         <v>15.07999999999999</v>
@@ -16994,7 +17016,7 @@
         <v>28.40000000000006</v>
       </c>
       <c r="K326" t="n">
-        <v>7.692307692307576</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L326" t="n">
         <v>15.06999999999999</v>
@@ -17045,7 +17067,7 @@
         <v>28.40000000000006</v>
       </c>
       <c r="K327" t="n">
-        <v>-9.090909090908928</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L327" t="n">
         <v>15.05999999999999</v>
@@ -17096,7 +17118,7 @@
         <v>28.50000000000006</v>
       </c>
       <c r="K328" t="n">
-        <v>-16.66666666666637</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L328" t="n">
         <v>15.04</v>
@@ -17147,7 +17169,7 @@
         <v>28.50000000000006</v>
       </c>
       <c r="K329" t="n">
-        <v>-16.66666666666637</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L329" t="n">
         <v>15.02</v>
@@ -17198,7 +17220,7 @@
         <v>28.60000000000006</v>
       </c>
       <c r="K330" t="n">
-        <v>-23.07692307692267</v>
+        <v>-66.66666666666549</v>
       </c>
       <c r="L330" t="n">
         <v>14.99</v>
@@ -17249,7 +17271,7 @@
         <v>28.60000000000006</v>
       </c>
       <c r="K331" t="n">
-        <v>-23.07692307692267</v>
+        <v>-59.99999999999893</v>
       </c>
       <c r="L331" t="n">
         <v>14.95</v>
@@ -17300,7 +17322,7 @@
         <v>28.70000000000006</v>
       </c>
       <c r="K332" t="n">
-        <v>-7.692307692307556</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L332" t="n">
         <v>14.93</v>
@@ -17351,7 +17373,7 @@
         <v>29.00000000000006</v>
       </c>
       <c r="K333" t="n">
-        <v>-33.33333333333294</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L333" t="n">
         <v>14.88</v>
@@ -17402,7 +17424,7 @@
         <v>29.10000000000006</v>
       </c>
       <c r="K334" t="n">
-        <v>-24.99999999999978</v>
+        <v>-25</v>
       </c>
       <c r="L334" t="n">
         <v>14.85</v>
@@ -17453,7 +17475,7 @@
         <v>29.30000000000006</v>
       </c>
       <c r="K335" t="n">
-        <v>-49.99999999999967</v>
+        <v>-55.55555555555542</v>
       </c>
       <c r="L335" t="n">
         <v>14.81</v>
@@ -17504,7 +17526,7 @@
         <v>29.40000000000006</v>
       </c>
       <c r="K336" t="n">
-        <v>-33.33333333333318</v>
+        <v>-40.00000000000004</v>
       </c>
       <c r="L336" t="n">
         <v>14.77</v>
@@ -17555,7 +17577,7 @@
         <v>29.50000000000006</v>
       </c>
       <c r="K337" t="n">
-        <v>-37.49999999999978</v>
+        <v>-40.00000000000004</v>
       </c>
       <c r="L337" t="n">
         <v>14.72</v>
@@ -17606,7 +17628,7 @@
         <v>29.60000000000006</v>
       </c>
       <c r="K338" t="n">
-        <v>-29.41176470588218</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L338" t="n">
         <v>14.69</v>
@@ -17657,7 +17679,7 @@
         <v>29.70000000000006</v>
       </c>
       <c r="K339" t="n">
-        <v>-33.3333333333331</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L339" t="n">
         <v>14.65</v>
@@ -17708,7 +17730,7 @@
         <v>29.90000000000006</v>
       </c>
       <c r="K340" t="n">
-        <v>-39.99999999999974</v>
+        <v>-38.46153846153844</v>
       </c>
       <c r="L340" t="n">
         <v>14.6</v>
@@ -17759,7 +17781,7 @@
         <v>30.00000000000006</v>
       </c>
       <c r="K341" t="n">
-        <v>-49.99999999999973</v>
+        <v>-53.8461538461539</v>
       </c>
       <c r="L341" t="n">
         <v>14.54</v>
@@ -17810,7 +17832,7 @@
         <v>30.20000000000006</v>
       </c>
       <c r="K342" t="n">
-        <v>-33.33333333333317</v>
+        <v>-16.66666666666662</v>
       </c>
       <c r="L342" t="n">
         <v>14.48999999999999</v>
@@ -17861,7 +17883,7 @@
         <v>30.30000000000006</v>
       </c>
       <c r="K343" t="n">
-        <v>-36.36363636363615</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L343" t="n">
         <v>14.46</v>
@@ -17912,7 +17934,7 @@
         <v>30.30000000000006</v>
       </c>
       <c r="K344" t="n">
-        <v>-33.33333333333317</v>
+        <v>-19.99999999999986</v>
       </c>
       <c r="L344" t="n">
         <v>14.42</v>
@@ -17963,7 +17985,7 @@
         <v>30.30000000000006</v>
       </c>
       <c r="K345" t="n">
-        <v>-29.99999999999988</v>
+        <v>-33.333333333333</v>
       </c>
       <c r="L345" t="n">
         <v>14.4</v>
@@ -18014,7 +18036,7 @@
         <v>30.30000000000006</v>
       </c>
       <c r="K346" t="n">
-        <v>-36.84210526315775</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L346" t="n">
         <v>14.37</v>
@@ -18065,7 +18087,7 @@
         <v>30.40000000000006</v>
       </c>
       <c r="K347" t="n">
-        <v>-29.99999999999988</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L347" t="n">
         <v>14.36</v>
@@ -18116,7 +18138,7 @@
         <v>30.40000000000006</v>
       </c>
       <c r="K348" t="n">
-        <v>-26.31578947368413</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L348" t="n">
         <v>14.34</v>
@@ -18167,7 +18189,7 @@
         <v>30.40000000000006</v>
       </c>
       <c r="K349" t="n">
-        <v>-26.31578947368413</v>
+        <v>19.99999999999979</v>
       </c>
       <c r="L349" t="n">
         <v>14.33</v>
@@ -18218,7 +18240,7 @@
         <v>30.50000000000006</v>
       </c>
       <c r="K350" t="n">
-        <v>-15.78947368421052</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L350" t="n">
         <v>14.35</v>
@@ -18269,7 +18291,7 @@
         <v>30.60000000000007</v>
       </c>
       <c r="K351" t="n">
-        <v>-19.99999999999995</v>
+        <v>0</v>
       </c>
       <c r="L351" t="n">
         <v>14.37</v>
@@ -18320,7 +18342,7 @@
         <v>30.70000000000007</v>
       </c>
       <c r="K352" t="n">
-        <v>-19.99999999999995</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L352" t="n">
         <v>14.38</v>
@@ -18371,7 +18393,7 @@
         <v>30.80000000000007</v>
       </c>
       <c r="K353" t="n">
-        <v>-11.11111111111102</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L353" t="n">
         <v>14.39</v>
@@ -18422,7 +18444,7 @@
         <v>30.90000000000007</v>
       </c>
       <c r="K354" t="n">
-        <v>-11.111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L354" t="n">
         <v>14.41</v>
@@ -18473,7 +18495,7 @@
         <v>31.00000000000007</v>
       </c>
       <c r="K355" t="n">
-        <v>-5.882352941176404</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L355" t="n">
         <v>14.42</v>
@@ -18524,7 +18546,7 @@
         <v>31.00000000000007</v>
       </c>
       <c r="K356" t="n">
-        <v>-12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L356" t="n">
         <v>14.43</v>
@@ -18575,7 +18597,7 @@
         <v>31.10000000000007</v>
       </c>
       <c r="K357" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L357" t="n">
         <v>14.44</v>
@@ -18626,7 +18648,7 @@
         <v>31.10000000000007</v>
       </c>
       <c r="K358" t="n">
-        <v>-6.666666666666579</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L358" t="n">
         <v>14.45</v>
@@ -18677,7 +18699,7 @@
         <v>31.20000000000007</v>
       </c>
       <c r="K359" t="n">
-        <v>6.666666666666579</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L359" t="n">
         <v>14.47</v>
@@ -18728,7 +18750,7 @@
         <v>31.20000000000007</v>
       </c>
       <c r="K360" t="n">
-        <v>23.07692307692273</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L360" t="n">
         <v>14.48</v>
@@ -18779,7 +18801,7 @@
         <v>31.30000000000008</v>
       </c>
       <c r="K361" t="n">
-        <v>38.46153846153802</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L361" t="n">
         <v>14.51</v>
@@ -18830,7 +18852,7 @@
         <v>31.30000000000008</v>
       </c>
       <c r="K362" t="n">
-        <v>27.27272727272679</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L362" t="n">
         <v>14.53</v>
@@ -18881,7 +18903,7 @@
         <v>31.30000000000008</v>
       </c>
       <c r="K363" t="n">
-        <v>39.99999999999929</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L363" t="n">
         <v>14.55999999999999</v>
@@ -18932,7 +18954,7 @@
         <v>31.40000000000008</v>
       </c>
       <c r="K364" t="n">
-        <v>45.45454545454481</v>
+        <v>99.99999999999866</v>
       </c>
       <c r="L364" t="n">
         <v>14.58999999999999</v>
@@ -18983,7 +19005,7 @@
         <v>31.50000000000008</v>
       </c>
       <c r="K365" t="n">
-        <v>33.33333333333275</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L365" t="n">
         <v>14.61999999999999</v>
@@ -19034,7 +19056,7 @@
         <v>31.50000000000008</v>
       </c>
       <c r="K366" t="n">
-        <v>33.33333333333275</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L366" t="n">
         <v>14.64999999999999</v>
@@ -19085,7 +19107,7 @@
         <v>31.50000000000008</v>
       </c>
       <c r="K367" t="n">
-        <v>27.27272727272679</v>
+        <v>49.99999999999911</v>
       </c>
       <c r="L367" t="n">
         <v>14.66999999999999</v>
@@ -19136,7 +19158,7 @@
         <v>31.50000000000008</v>
       </c>
       <c r="K368" t="n">
-        <v>27.27272727272679</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L368" t="n">
         <v>14.68999999999999</v>
@@ -19187,7 +19209,7 @@
         <v>31.50000000000008</v>
       </c>
       <c r="K369" t="n">
-        <v>27.27272727272679</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L369" t="n">
         <v>14.69999999999999</v>
@@ -19238,7 +19260,7 @@
         <v>31.50000000000008</v>
       </c>
       <c r="K370" t="n">
-        <v>19.99999999999964</v>
+        <v>0</v>
       </c>
       <c r="L370" t="n">
         <v>14.70999999999999</v>
@@ -19289,7 +19311,7 @@
         <v>31.50000000000008</v>
       </c>
       <c r="K371" t="n">
-        <v>33.33333333333275</v>
+        <v>0</v>
       </c>
       <c r="L371" t="n">
         <v>14.70999999999999</v>
@@ -19340,7 +19362,7 @@
         <v>31.50000000000008</v>
       </c>
       <c r="K372" t="n">
-        <v>24.99999999999956</v>
+        <v>0</v>
       </c>
       <c r="L372" t="n">
         <v>14.70999999999999</v>
@@ -19391,7 +19413,7 @@
         <v>31.50000000000008</v>
       </c>
       <c r="K373" t="n">
-        <v>42.85714285714209</v>
+        <v>-100</v>
       </c>
       <c r="L373" t="n">
         <v>14.70999999999999</v>
@@ -19441,9 +19463,7 @@
       <c r="J374" t="n">
         <v>31.50000000000008</v>
       </c>
-      <c r="K374" t="n">
-        <v>33.33333333333275</v>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="n">
         <v>14.69999999999999</v>
       </c>
@@ -19492,9 +19512,7 @@
       <c r="J375" t="n">
         <v>31.50000000000008</v>
       </c>
-      <c r="K375" t="n">
-        <v>59.99999999999893</v>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="n">
         <v>14.69999999999999</v>
       </c>
@@ -19543,9 +19561,7 @@
       <c r="J376" t="n">
         <v>31.50000000000008</v>
       </c>
-      <c r="K376" t="n">
-        <v>59.99999999999893</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>14.69999999999999</v>
       </c>
@@ -19595,7 +19611,7 @@
         <v>31.60000000000008</v>
       </c>
       <c r="K377" t="n">
-        <v>19.99999999999964</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L377" t="n">
         <v>14.68999999999999</v>
@@ -19646,7 +19662,7 @@
         <v>31.60000000000008</v>
       </c>
       <c r="K378" t="n">
-        <v>19.99999999999964</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L378" t="n">
         <v>14.67999999999999</v>
@@ -19697,7 +19713,7 @@
         <v>31.60000000000008</v>
       </c>
       <c r="K379" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L379" t="n">
         <v>14.66999999999999</v>
@@ -19748,7 +19764,7 @@
         <v>31.60000000000008</v>
       </c>
       <c r="K380" t="n">
-        <v>0</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L380" t="n">
         <v>14.65999999999999</v>
@@ -19799,7 +19815,7 @@
         <v>31.60000000000008</v>
       </c>
       <c r="K381" t="n">
-        <v>-33.33333333333275</v>
+        <v>-99.99999999999822</v>
       </c>
       <c r="L381" t="n">
         <v>14.64999999999999</v>
@@ -19850,7 +19866,7 @@
         <v>31.80000000000008</v>
       </c>
       <c r="K382" t="n">
-        <v>-59.99999999999937</v>
+        <v>-99.99999999999942</v>
       </c>
       <c r="L382" t="n">
         <v>14.61999999999999</v>
@@ -19901,7 +19917,7 @@
         <v>31.90000000000008</v>
       </c>
       <c r="K383" t="n">
-        <v>-33.33333333333314</v>
+        <v>-50</v>
       </c>
       <c r="L383" t="n">
         <v>14.59999999999999</v>
@@ -19952,7 +19968,7 @@
         <v>32.00000000000008</v>
       </c>
       <c r="K384" t="n">
-        <v>-66.66666666666656</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L384" t="n">
         <v>14.56999999999999</v>
@@ -20054,7 +20070,7 @@
         <v>32.20000000000008</v>
       </c>
       <c r="K386" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L386" t="n">
         <v>14.54</v>
@@ -20105,7 +20121,7 @@
         <v>32.20000000000008</v>
       </c>
       <c r="K387" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L387" t="n">
         <v>14.54</v>
@@ -20156,7 +20172,7 @@
         <v>32.20000000000008</v>
       </c>
       <c r="K388" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>14.54</v>
@@ -20207,7 +20223,7 @@
         <v>32.20000000000008</v>
       </c>
       <c r="K389" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>14.54</v>
@@ -20258,7 +20274,7 @@
         <v>32.20000000000008</v>
       </c>
       <c r="K390" t="n">
-        <v>-14.28571428571418</v>
+        <v>0</v>
       </c>
       <c r="L390" t="n">
         <v>14.54</v>
@@ -20309,7 +20325,7 @@
         <v>32.20000000000008</v>
       </c>
       <c r="K391" t="n">
-        <v>-14.28571428571418</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L391" t="n">
         <v>14.54</v>
@@ -20360,7 +20376,7 @@
         <v>32.20000000000008</v>
       </c>
       <c r="K392" t="n">
-        <v>-14.28571428571418</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L392" t="n">
         <v>14.55999999999999</v>
@@ -20411,7 +20427,7 @@
         <v>32.20000000000008</v>
       </c>
       <c r="K393" t="n">
-        <v>-14.28571428571418</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L393" t="n">
         <v>14.56999999999999</v>
@@ -20462,7 +20478,7 @@
         <v>32.20000000000008</v>
       </c>
       <c r="K394" t="n">
-        <v>-14.28571428571418</v>
+        <v>99.99999999999822</v>
       </c>
       <c r="L394" t="n">
         <v>14.58999999999999</v>
@@ -20512,9 +20528,7 @@
       <c r="J395" t="n">
         <v>32.20000000000008</v>
       </c>
-      <c r="K395" t="n">
-        <v>-14.28571428571418</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>14.59999999999999</v>
       </c>
@@ -20563,9 +20577,7 @@
       <c r="J396" t="n">
         <v>32.20000000000008</v>
       </c>
-      <c r="K396" t="n">
-        <v>-14.28571428571418</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>14.59999999999999</v>
       </c>
@@ -20614,9 +20626,7 @@
       <c r="J397" t="n">
         <v>32.20000000000008</v>
       </c>
-      <c r="K397" t="n">
-        <v>0</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>14.59999999999999</v>
       </c>
@@ -20665,9 +20675,7 @@
       <c r="J398" t="n">
         <v>32.20000000000008</v>
       </c>
-      <c r="K398" t="n">
-        <v>0</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>14.59999999999999</v>
       </c>
@@ -20716,9 +20724,7 @@
       <c r="J399" t="n">
         <v>32.20000000000008</v>
       </c>
-      <c r="K399" t="n">
-        <v>0</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>14.59999999999999</v>
       </c>
@@ -20768,7 +20774,7 @@
         <v>32.40000000000008</v>
       </c>
       <c r="K400" t="n">
-        <v>25</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L400" t="n">
         <v>14.61999999999999</v>
@@ -20819,7 +20825,7 @@
         <v>32.40000000000008</v>
       </c>
       <c r="K401" t="n">
-        <v>25</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L401" t="n">
         <v>14.64</v>
@@ -20870,7 +20876,7 @@
         <v>32.40000000000008</v>
       </c>
       <c r="K402" t="n">
-        <v>66.66666666666617</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L402" t="n">
         <v>14.66</v>
@@ -20921,7 +20927,7 @@
         <v>32.40000000000008</v>
       </c>
       <c r="K403" t="n">
-        <v>59.99999999999929</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L403" t="n">
         <v>14.68</v>
@@ -20972,7 +20978,7 @@
         <v>32.40000000000008</v>
       </c>
       <c r="K404" t="n">
-        <v>99.99999999999866</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L404" t="n">
         <v>14.7</v>
@@ -21023,7 +21029,7 @@
         <v>32.40000000000008</v>
       </c>
       <c r="K405" t="n">
-        <v>99.99999999999881</v>
+        <v>99.99999999999912</v>
       </c>
       <c r="L405" t="n">
         <v>14.72</v>
@@ -21227,7 +21233,7 @@
         <v>32.60000000000009</v>
       </c>
       <c r="K409" t="n">
-        <v>0</v>
+        <v>-99.99999999999912</v>
       </c>
       <c r="L409" t="n">
         <v>14.77</v>
@@ -21278,7 +21284,7 @@
         <v>32.70000000000009</v>
       </c>
       <c r="K410" t="n">
-        <v>19.99999999999964</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L410" t="n">
         <v>14.76</v>
@@ -21329,7 +21335,7 @@
         <v>32.70000000000009</v>
       </c>
       <c r="K411" t="n">
-        <v>19.99999999999964</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L411" t="n">
         <v>14.75</v>
@@ -21380,7 +21386,7 @@
         <v>32.80000000000009</v>
       </c>
       <c r="K412" t="n">
-        <v>33.33333333333304</v>
+        <v>0</v>
       </c>
       <c r="L412" t="n">
         <v>14.75</v>
@@ -21431,7 +21437,7 @@
         <v>32.90000000000009</v>
       </c>
       <c r="K413" t="n">
-        <v>14.28571428571403</v>
+        <v>-20</v>
       </c>
       <c r="L413" t="n">
         <v>14.74</v>
@@ -21482,7 +21488,7 @@
         <v>33.00000000000009</v>
       </c>
       <c r="K414" t="n">
-        <v>24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L414" t="n">
         <v>14.74</v>
@@ -21533,7 +21539,7 @@
         <v>33.2000000000001</v>
       </c>
       <c r="K415" t="n">
-        <v>0</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L415" t="n">
         <v>14.72</v>
@@ -21584,7 +21590,7 @@
         <v>33.50000000000009</v>
       </c>
       <c r="K416" t="n">
-        <v>-23.07692307692279</v>
+        <v>-45.45454545454511</v>
       </c>
       <c r="L416" t="n">
         <v>14.67</v>
@@ -21635,7 +21641,7 @@
         <v>33.70000000000009</v>
       </c>
       <c r="K417" t="n">
-        <v>-6.666666666666611</v>
+        <v>-16.66666666666657</v>
       </c>
       <c r="L417" t="n">
         <v>14.64</v>
@@ -21686,7 +21692,7 @@
         <v>33.70000000000009</v>
       </c>
       <c r="K418" t="n">
-        <v>-6.666666666666611</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L418" t="n">
         <v>14.62</v>
@@ -21737,7 +21743,7 @@
         <v>33.80000000000009</v>
       </c>
       <c r="K419" t="n">
-        <v>0</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L419" t="n">
         <v>14.62</v>
@@ -21788,7 +21794,7 @@
         <v>33.80000000000009</v>
       </c>
       <c r="K420" t="n">
-        <v>-14.2857142857143</v>
+        <v>-9.090909090909047</v>
       </c>
       <c r="L420" t="n">
         <v>14.61</v>
@@ -21839,7 +21845,7 @@
         <v>33.90000000000009</v>
       </c>
       <c r="K421" t="n">
-        <v>-19.99999999999995</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L421" t="n">
         <v>14.59</v>
@@ -21890,7 +21896,7 @@
         <v>34.00000000000009</v>
       </c>
       <c r="K422" t="n">
-        <v>-24.99999999999989</v>
+        <v>-27.27272727272714</v>
       </c>
       <c r="L422" t="n">
         <v>14.55</v>
@@ -21947,7 +21953,7 @@
         <v>34.10000000000009</v>
       </c>
       <c r="K423" t="n">
-        <v>-17.64705882352935</v>
+        <v>-27.27272727272731</v>
       </c>
       <c r="L423" t="n">
         <v>14.53</v>
@@ -22004,7 +22010,7 @@
         <v>34.2000000000001</v>
       </c>
       <c r="K424" t="n">
-        <v>-22.2222222222221</v>
+        <v>-19.99999999999993</v>
       </c>
       <c r="L424" t="n">
         <v>14.49</v>
@@ -22065,7 +22071,7 @@
         <v>34.2000000000001</v>
       </c>
       <c r="K425" t="n">
-        <v>-22.2222222222221</v>
+        <v>14.28571428571418</v>
       </c>
       <c r="L425" t="n">
         <v>14.47</v>
@@ -22126,7 +22132,7 @@
         <v>34.3000000000001</v>
       </c>
       <c r="K426" t="n">
-        <v>-26.31578947368403</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L426" t="n">
         <v>14.47</v>
@@ -22185,7 +22191,7 @@
         <v>34.4000000000001</v>
       </c>
       <c r="K427" t="n">
-        <v>-19.99999999999988</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L427" t="n">
         <v>14.46</v>
@@ -22246,7 +22252,7 @@
         <v>34.4000000000001</v>
       </c>
       <c r="K428" t="n">
-        <v>-15.78947368421036</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L428" t="n">
         <v>14.45</v>
@@ -22303,7 +22309,7 @@
         <v>34.4000000000001</v>
       </c>
       <c r="K429" t="n">
-        <v>-11.111111111111</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L429" t="n">
         <v>14.43</v>
@@ -22360,7 +22366,7 @@
         <v>34.5000000000001</v>
       </c>
       <c r="K430" t="n">
-        <v>-11.111111111111</v>
+        <v>0</v>
       </c>
       <c r="L430" t="n">
         <v>14.42</v>
@@ -22417,7 +22423,7 @@
         <v>34.6000000000001</v>
       </c>
       <c r="K431" t="n">
-        <v>-5.263157894736787</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L431" t="n">
         <v>14.43</v>
@@ -22474,7 +22480,7 @@
         <v>34.6000000000001</v>
       </c>
       <c r="K432" t="n">
-        <v>-11.1111111111111</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L432" t="n">
         <v>14.45</v>
@@ -22531,7 +22537,7 @@
         <v>34.7000000000001</v>
       </c>
       <c r="K433" t="n">
-        <v>-11.111111111111</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L433" t="n">
         <v>14.45</v>
@@ -22588,7 +22594,7 @@
         <v>34.8000000000001</v>
       </c>
       <c r="K434" t="n">
-        <v>-11.1111111111111</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L434" t="n">
         <v>14.47</v>
@@ -22645,7 +22651,7 @@
         <v>34.90000000000011</v>
       </c>
       <c r="K435" t="n">
-        <v>5.882352941176415</v>
+        <v>66.66666666666549</v>
       </c>
       <c r="L435" t="n">
         <v>14.5</v>
@@ -22702,7 +22708,7 @@
         <v>35.00000000000011</v>
       </c>
       <c r="K436" t="n">
-        <v>19.99999999999974</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L436" t="n">
         <v>14.53</v>
@@ -22759,7 +22765,7 @@
         <v>35.10000000000011</v>
       </c>
       <c r="K437" t="n">
-        <v>14.28571428571403</v>
+        <v>42.85714285714209</v>
       </c>
       <c r="L437" t="n">
         <v>14.55999999999999</v>
@@ -22816,7 +22822,7 @@
         <v>35.20000000000011</v>
       </c>
       <c r="K438" t="n">
-        <v>19.99999999999976</v>
+        <v>49.99999999999933</v>
       </c>
       <c r="L438" t="n">
         <v>14.59999999999999</v>
@@ -22873,7 +22879,7 @@
         <v>35.40000000000011</v>
       </c>
       <c r="K439" t="n">
-        <v>0</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L439" t="n">
         <v>14.61999999999999</v>
@@ -22930,7 +22936,7 @@
         <v>35.60000000000012</v>
       </c>
       <c r="K440" t="n">
-        <v>11.11111111111101</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L440" t="n">
         <v>14.65</v>
@@ -22987,7 +22993,7 @@
         <v>35.70000000000012</v>
       </c>
       <c r="K441" t="n">
-        <v>11.11111111111091</v>
+        <v>9.090909090908928</v>
       </c>
       <c r="L441" t="n">
         <v>14.65999999999999</v>
@@ -23038,7 +23044,7 @@
         <v>35.80000000000012</v>
       </c>
       <c r="K442" t="n">
-        <v>11.11111111111091</v>
+        <v>9.090909090908928</v>
       </c>
       <c r="L442" t="n">
         <v>14.65999999999999</v>
@@ -23089,7 +23095,7 @@
         <v>35.90000000000012</v>
       </c>
       <c r="K443" t="n">
-        <v>0</v>
+        <v>-9.090909090908928</v>
       </c>
       <c r="L443" t="n">
         <v>14.65999999999999</v>
@@ -23140,7 +23146,7 @@
         <v>36.00000000000012</v>
       </c>
       <c r="K444" t="n">
-        <v>11.11111111111091</v>
+        <v>-9.090909090908928</v>
       </c>
       <c r="L444" t="n">
         <v>14.65999999999999</v>
@@ -23191,7 +23197,7 @@
         <v>36.00000000000012</v>
       </c>
       <c r="K445" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L445" t="n">
         <v>14.65</v>
@@ -23242,7 +23248,7 @@
         <v>36.10000000000012</v>
       </c>
       <c r="K446" t="n">
-        <v>11.11111111111091</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L446" t="n">
         <v>14.64</v>
@@ -23293,7 +23299,7 @@
         <v>36.30000000000013</v>
       </c>
       <c r="K447" t="n">
-        <v>15.78947368421024</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L447" t="n">
         <v>14.64</v>
@@ -23344,7 +23350,7 @@
         <v>36.30000000000013</v>
       </c>
       <c r="K448" t="n">
-        <v>15.78947368421024</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L448" t="n">
         <v>14.62999999999999</v>
@@ -23395,7 +23401,7 @@
         <v>36.30000000000013</v>
       </c>
       <c r="K449" t="n">
-        <v>15.78947368421024</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L449" t="n">
         <v>14.63999999999999</v>
@@ -23446,7 +23452,7 @@
         <v>36.50000000000013</v>
       </c>
       <c r="K450" t="n">
-        <v>19.99999999999973</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L450" t="n">
         <v>14.64999999999999</v>
@@ -23497,7 +23503,7 @@
         <v>36.60000000000013</v>
       </c>
       <c r="K451" t="n">
-        <v>9.999999999999911</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L451" t="n">
         <v>14.65999999999999</v>
@@ -23548,7 +23554,7 @@
         <v>36.70000000000013</v>
       </c>
       <c r="K452" t="n">
-        <v>14.28571428571412</v>
+        <v>49.99999999999933</v>
       </c>
       <c r="L452" t="n">
         <v>14.68999999999999</v>
@@ -23599,7 +23605,7 @@
         <v>36.80000000000013</v>
       </c>
       <c r="K453" t="n">
-        <v>14.28571428571412</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L453" t="n">
         <v>14.72</v>
@@ -23650,7 +23656,7 @@
         <v>36.80000000000013</v>
       </c>
       <c r="K454" t="n">
-        <v>9.999999999999911</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L454" t="n">
         <v>14.74</v>
@@ -23701,7 +23707,7 @@
         <v>36.90000000000013</v>
       </c>
       <c r="K455" t="n">
-        <v>0</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L455" t="n">
         <v>14.75</v>
@@ -23752,7 +23758,7 @@
         <v>37.10000000000014</v>
       </c>
       <c r="K456" t="n">
-        <v>14.28571428571412</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L456" t="n">
         <v>14.79</v>
@@ -23803,7 +23809,7 @@
         <v>37.20000000000014</v>
       </c>
       <c r="K457" t="n">
-        <v>4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L457" t="n">
         <v>14.8</v>
@@ -23854,7 +23860,7 @@
         <v>37.30000000000014</v>
       </c>
       <c r="K458" t="n">
-        <v>4.761904761904677</v>
+        <v>19.99999999999982</v>
       </c>
       <c r="L458" t="n">
         <v>14.82</v>
@@ -23905,7 +23911,7 @@
         <v>37.50000000000014</v>
       </c>
       <c r="K459" t="n">
-        <v>4.761904761904677</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L459" t="n">
         <v>14.82</v>
@@ -24007,7 +24013,7 @@
         <v>37.70000000000014</v>
       </c>
       <c r="K461" t="n">
-        <v>9.999999999999911</v>
+        <v>0</v>
       </c>
       <c r="L461" t="n">
         <v>14.82</v>
@@ -24058,7 +24064,7 @@
         <v>37.70000000000014</v>
       </c>
       <c r="K462" t="n">
-        <v>15.78947368421034</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L462" t="n">
         <v>14.82</v>
@@ -24109,7 +24115,7 @@
         <v>37.80000000000015</v>
       </c>
       <c r="K463" t="n">
-        <v>15.78947368421034</v>
+        <v>0</v>
       </c>
       <c r="L463" t="n">
         <v>14.82</v>
@@ -24160,7 +24166,7 @@
         <v>37.90000000000015</v>
       </c>
       <c r="K464" t="n">
-        <v>5.263157894736749</v>
+        <v>0</v>
       </c>
       <c r="L464" t="n">
         <v>14.81</v>
@@ -24211,7 +24217,7 @@
         <v>37.90000000000015</v>
       </c>
       <c r="K465" t="n">
-        <v>5.263157894736749</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L465" t="n">
         <v>14.81</v>
@@ -24262,7 +24268,7 @@
         <v>37.90000000000015</v>
       </c>
       <c r="K466" t="n">
-        <v>11.11111111111091</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L466" t="n">
         <v>14.79</v>
@@ -24313,7 +24319,7 @@
         <v>37.90000000000015</v>
       </c>
       <c r="K467" t="n">
-        <v>0</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L467" t="n">
         <v>14.78</v>
@@ -24415,7 +24421,7 @@
         <v>38.00000000000015</v>
       </c>
       <c r="K469" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L469" t="n">
         <v>14.77</v>
@@ -24466,7 +24472,7 @@
         <v>38.00000000000015</v>
       </c>
       <c r="K470" t="n">
-        <v>-6.666666666666549</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L470" t="n">
         <v>14.77</v>
@@ -24517,7 +24523,7 @@
         <v>38.10000000000015</v>
       </c>
       <c r="K471" t="n">
-        <v>-6.666666666666667</v>
+        <v>-49.99999999999956</v>
       </c>
       <c r="L471" t="n">
         <v>14.74999999999999</v>
@@ -24568,7 +24574,7 @@
         <v>38.10000000000015</v>
       </c>
       <c r="K472" t="n">
-        <v>-14.28571428571416</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L472" t="n">
         <v>14.72999999999999</v>
@@ -24619,7 +24625,7 @@
         <v>38.20000000000015</v>
       </c>
       <c r="K473" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L473" t="n">
         <v>14.72999999999999</v>
@@ -24670,7 +24676,7 @@
         <v>38.20000000000015</v>
       </c>
       <c r="K474" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L474" t="n">
         <v>14.73999999999999</v>
@@ -24721,7 +24727,7 @@
         <v>38.20000000000015</v>
       </c>
       <c r="K475" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L475" t="n">
         <v>14.75</v>
@@ -24772,7 +24778,7 @@
         <v>38.30000000000015</v>
       </c>
       <c r="K476" t="n">
-        <v>0</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L476" t="n">
         <v>14.77</v>
@@ -24823,7 +24829,7 @@
         <v>38.30000000000015</v>
       </c>
       <c r="K477" t="n">
-        <v>9.090909090908928</v>
+        <v>49.99999999999956</v>
       </c>
       <c r="L477" t="n">
         <v>14.79</v>
@@ -24874,7 +24880,7 @@
         <v>38.30000000000015</v>
       </c>
       <c r="K478" t="n">
-        <v>0</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L478" t="n">
         <v>14.81</v>
@@ -24925,7 +24931,7 @@
         <v>38.30000000000015</v>
       </c>
       <c r="K479" t="n">
-        <v>24.99999999999978</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L479" t="n">
         <v>14.82</v>
@@ -24976,7 +24982,7 @@
         <v>38.40000000000015</v>
       </c>
       <c r="K480" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L480" t="n">
         <v>14.82</v>
@@ -25027,7 +25033,7 @@
         <v>38.50000000000016</v>
       </c>
       <c r="K481" t="n">
-        <v>-24.99999999999978</v>
+        <v>0</v>
       </c>
       <c r="L481" t="n">
         <v>14.82</v>
@@ -25078,7 +25084,7 @@
         <v>38.60000000000016</v>
       </c>
       <c r="K482" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L482" t="n">
         <v>14.83</v>
@@ -25129,7 +25135,7 @@
         <v>38.80000000000016</v>
       </c>
       <c r="K483" t="n">
-        <v>-19.99999999999982</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L483" t="n">
         <v>14.81</v>
@@ -25180,7 +25186,7 @@
         <v>38.80000000000016</v>
       </c>
       <c r="K484" t="n">
-        <v>-11.11111111111091</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L484" t="n">
         <v>14.79</v>
@@ -25231,7 +25237,7 @@
         <v>39.00000000000016</v>
       </c>
       <c r="K485" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L485" t="n">
         <v>14.79</v>
@@ -25282,7 +25288,7 @@
         <v>39.00000000000016</v>
       </c>
       <c r="K486" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L486" t="n">
         <v>14.78</v>
@@ -25333,7 +25339,7 @@
         <v>39.00000000000016</v>
       </c>
       <c r="K487" t="n">
-        <v>9.090909090909092</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L487" t="n">
         <v>14.77</v>
@@ -25384,7 +25390,7 @@
         <v>39.20000000000017</v>
       </c>
       <c r="K488" t="n">
-        <v>-7.692307692307556</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L488" t="n">
         <v>14.74</v>
@@ -25435,7 +25441,7 @@
         <v>39.30000000000017</v>
       </c>
       <c r="K489" t="n">
-        <v>-7.692307692307693</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L489" t="n">
         <v>14.72</v>
@@ -25486,7 +25492,7 @@
         <v>39.40000000000017</v>
       </c>
       <c r="K490" t="n">
-        <v>-14.28571428571416</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L490" t="n">
         <v>14.7</v>
@@ -25537,7 +25543,7 @@
         <v>39.40000000000017</v>
       </c>
       <c r="K491" t="n">
-        <v>-7.692307692307556</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L491" t="n">
         <v>14.69</v>
@@ -25639,7 +25645,7 @@
         <v>39.70000000000017</v>
       </c>
       <c r="K493" t="n">
-        <v>-6.666666666666667</v>
+        <v>11.11111111111091</v>
       </c>
       <c r="L493" t="n">
         <v>14.67</v>
@@ -25690,7 +25696,7 @@
         <v>40.00000000000017</v>
       </c>
       <c r="K494" t="n">
-        <v>-22.22222222222201</v>
+        <v>-39.99999999999975</v>
       </c>
       <c r="L494" t="n">
         <v>14.65</v>
@@ -25741,7 +25747,7 @@
         <v>40.30000000000017</v>
       </c>
       <c r="K495" t="n">
-        <v>-4.761904761904794</v>
+        <v>-7.692307692307776</v>
       </c>
       <c r="L495" t="n">
         <v>14.64</v>
@@ -25792,7 +25798,7 @@
         <v>40.50000000000017</v>
       </c>
       <c r="K496" t="n">
-        <v>-18.18181818181806</v>
+        <v>-19.99999999999995</v>
       </c>
       <c r="L496" t="n">
         <v>14.60999999999999</v>
@@ -25843,7 +25849,7 @@
         <v>40.70000000000017</v>
       </c>
       <c r="K497" t="n">
-        <v>-8.333333333333309</v>
+        <v>6.666666666666611</v>
       </c>
       <c r="L497" t="n">
         <v>14.59999999999999</v>
@@ -25894,7 +25900,7 @@
         <v>40.90000000000018</v>
       </c>
       <c r="K498" t="n">
-        <v>-15.38461538461526</v>
+        <v>-12.49999999999989</v>
       </c>
       <c r="L498" t="n">
         <v>14.58999999999999</v>
@@ -25945,7 +25951,7 @@
         <v>40.90000000000018</v>
       </c>
       <c r="K499" t="n">
-        <v>-15.38461538461526</v>
+        <v>-6.666666666666611</v>
       </c>
       <c r="L499" t="n">
         <v>14.56999999999999</v>
@@ -25996,7 +26002,7 @@
         <v>41.00000000000018</v>
       </c>
       <c r="K500" t="n">
-        <v>-7.692307692307667</v>
+        <v>0</v>
       </c>
       <c r="L500" t="n">
         <v>14.56999999999999</v>
@@ -26047,7 +26053,7 @@
         <v>41.00000000000018</v>
       </c>
       <c r="K501" t="n">
-        <v>-3.999999999999952</v>
+        <v>6.666666666666611</v>
       </c>
       <c r="L501" t="n">
         <v>14.56999999999999</v>
@@ -26098,7 +26104,7 @@
         <v>41.10000000000018</v>
       </c>
       <c r="K502" t="n">
-        <v>-11.99999999999993</v>
+        <v>-14.28571428571418</v>
       </c>
       <c r="L502" t="n">
         <v>14.56999999999999</v>
@@ -26149,7 +26155,7 @@
         <v>41.10000000000018</v>
       </c>
       <c r="K503" t="n">
-        <v>-4.347826086956472</v>
+        <v>9.090909090908989</v>
       </c>
       <c r="L503" t="n">
         <v>14.54999999999999</v>
@@ -26200,7 +26206,7 @@
         <v>41.20000000000018</v>
       </c>
       <c r="K504" t="n">
-        <v>-8.333333333333234</v>
+        <v>-33.33333333333275</v>
       </c>
       <c r="L504" t="n">
         <v>14.54999999999999</v>
@@ -26251,7 +26257,7 @@
         <v>41.20000000000018</v>
       </c>
       <c r="K505" t="n">
-        <v>-18.18181818181806</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L505" t="n">
         <v>14.52</v>
@@ -26302,7 +26308,7 @@
         <v>41.50000000000018</v>
       </c>
       <c r="K506" t="n">
-        <v>-4.000000000000034</v>
+        <v>0</v>
       </c>
       <c r="L506" t="n">
         <v>14.54</v>
@@ -26353,7 +26359,7 @@
         <v>41.70000000000017</v>
       </c>
       <c r="K507" t="n">
-        <v>-11.1111111111111</v>
+        <v>0</v>
       </c>
       <c r="L507" t="n">
         <v>14.52</v>
@@ -26404,7 +26410,7 @@
         <v>41.90000000000018</v>
       </c>
       <c r="K508" t="n">
-        <v>3.703703703703677</v>
+        <v>19.99999999999993</v>
       </c>
       <c r="L508" t="n">
         <v>14.54</v>
@@ -26455,7 +26461,7 @@
         <v>42.20000000000017</v>
       </c>
       <c r="K509" t="n">
-        <v>-10.34482758620684</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L509" t="n">
         <v>14.53</v>
@@ -26557,7 +26563,7 @@
         <v>42.40000000000018</v>
       </c>
       <c r="K511" t="n">
-        <v>0</v>
+        <v>7.692307692307682</v>
       </c>
       <c r="L511" t="n">
         <v>14.53</v>
@@ -26608,7 +26614,7 @@
         <v>42.50000000000018</v>
       </c>
       <c r="K512" t="n">
-        <v>6.666666666666628</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L512" t="n">
         <v>14.54999999999999</v>
@@ -26659,7 +26665,7 @@
         <v>42.50000000000018</v>
       </c>
       <c r="K513" t="n">
-        <v>0</v>
+        <v>23.07692307692304</v>
       </c>
       <c r="L513" t="n">
         <v>14.56999999999999</v>
@@ -26710,7 +26716,7 @@
         <v>42.50000000000018</v>
       </c>
       <c r="K514" t="n">
-        <v>11.99999999999992</v>
+        <v>23.07692307692304</v>
       </c>
       <c r="L514" t="n">
         <v>14.59999999999999</v>
@@ -26761,7 +26767,7 @@
         <v>42.60000000000018</v>
       </c>
       <c r="K515" t="n">
-        <v>4.347826086956561</v>
+        <v>9.090909090909207</v>
       </c>
       <c r="L515" t="n">
         <v>14.63999999999999</v>
@@ -26812,7 +26818,7 @@
         <v>42.60000000000018</v>
       </c>
       <c r="K516" t="n">
-        <v>14.28571428571426</v>
+        <v>33.3333333333332</v>
       </c>
       <c r="L516" t="n">
         <v>14.65</v>
@@ -26914,7 +26920,7 @@
         <v>42.70000000000018</v>
       </c>
       <c r="K518" t="n">
-        <v>11.11111111111104</v>
+        <v>59.99999999999893</v>
       </c>
       <c r="L518" t="n">
         <v>14.66999999999999</v>
@@ -26965,7 +26971,7 @@
         <v>42.70000000000018</v>
       </c>
       <c r="K519" t="n">
-        <v>11.11111111111104</v>
+        <v>33.33333333333275</v>
       </c>
       <c r="L519" t="n">
         <v>14.69999999999999</v>
@@ -27067,7 +27073,7 @@
         <v>43.00000000000018</v>
       </c>
       <c r="K521" t="n">
-        <v>10.00000000000002</v>
+        <v>20</v>
       </c>
       <c r="L521" t="n">
         <v>14.71999999999999</v>
@@ -27118,7 +27124,7 @@
         <v>43.00000000000018</v>
       </c>
       <c r="K522" t="n">
-        <v>15.78947368421052</v>
+        <v>20</v>
       </c>
       <c r="L522" t="n">
         <v>14.73</v>
@@ -27169,7 +27175,7 @@
         <v>43.20000000000019</v>
       </c>
       <c r="K523" t="n">
-        <v>4.761904761904725</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L523" t="n">
         <v>14.72</v>
@@ -27220,7 +27226,7 @@
         <v>43.20000000000019</v>
       </c>
       <c r="K524" t="n">
-        <v>9.999999999999929</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L524" t="n">
         <v>14.71</v>
@@ -27271,7 +27277,7 @@
         <v>43.20000000000019</v>
       </c>
       <c r="K525" t="n">
-        <v>9.999999999999929</v>
+        <v>-33.33333333333304</v>
       </c>
       <c r="L525" t="n">
         <v>14.68999999999999</v>
@@ -27373,7 +27379,7 @@
         <v>43.40000000000019</v>
       </c>
       <c r="K527" t="n">
-        <v>5.882352941176391</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L527" t="n">
         <v>14.66999999999999</v>
@@ -27475,7 +27481,7 @@
         <v>43.60000000000019</v>
       </c>
       <c r="K529" t="n">
-        <v>28.57142857142819</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L529" t="n">
         <v>14.68</v>
@@ -27526,7 +27532,7 @@
         <v>43.70000000000019</v>
       </c>
       <c r="K530" t="n">
-        <v>7.692307692307556</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L530" t="n">
         <v>14.68999999999999</v>
@@ -27577,7 +27583,7 @@
         <v>43.70000000000019</v>
       </c>
       <c r="K531" t="n">
-        <v>7.692307692307556</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L531" t="n">
         <v>14.67999999999999</v>
@@ -27628,7 +27634,7 @@
         <v>43.8000000000002</v>
       </c>
       <c r="K532" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L532" t="n">
         <v>14.67999999999999</v>
@@ -27679,7 +27685,7 @@
         <v>43.8000000000002</v>
       </c>
       <c r="K533" t="n">
-        <v>7.692307692307693</v>
+        <v>33.33333333333304</v>
       </c>
       <c r="L533" t="n">
         <v>14.69999999999999</v>
@@ -27730,7 +27736,7 @@
         <v>43.9000000000002</v>
       </c>
       <c r="K534" t="n">
-        <v>0</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L534" t="n">
         <v>14.70999999999999</v>
@@ -27781,7 +27787,7 @@
         <v>44.1000000000002</v>
       </c>
       <c r="K535" t="n">
-        <v>6.666666666666549</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L535" t="n">
         <v>14.73999999999999</v>
@@ -27832,7 +27838,7 @@
         <v>44.2000000000002</v>
       </c>
       <c r="K536" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L536" t="n">
         <v>14.75</v>
@@ -27883,7 +27889,7 @@
         <v>44.3000000000002</v>
       </c>
       <c r="K537" t="n">
-        <v>12.49999999999989</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L537" t="n">
         <v>14.78</v>
@@ -27934,7 +27940,7 @@
         <v>44.3000000000002</v>
       </c>
       <c r="K538" t="n">
-        <v>12.49999999999989</v>
+        <v>14.28571428571403</v>
       </c>
       <c r="L538" t="n">
         <v>14.8</v>
@@ -27985,7 +27991,7 @@
         <v>44.4000000000002</v>
       </c>
       <c r="K539" t="n">
-        <v>17.6470588235292</v>
+        <v>42.85714285714235</v>
       </c>
       <c r="L539" t="n">
         <v>14.82</v>
@@ -28036,7 +28042,7 @@
         <v>44.7000000000002</v>
       </c>
       <c r="K540" t="n">
-        <v>36.84210526315756</v>
+        <v>59.99999999999972</v>
       </c>
       <c r="L540" t="n">
         <v>14.88</v>
@@ -28087,7 +28093,7 @@
         <v>44.7000000000002</v>
       </c>
       <c r="K541" t="n">
-        <v>29.41176470588206</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L541" t="n">
         <v>14.94</v>
@@ -28138,7 +28144,7 @@
         <v>44.7000000000002</v>
       </c>
       <c r="K542" t="n">
-        <v>29.41176470588206</v>
+        <v>55.5555555555552</v>
       </c>
       <c r="L542" t="n">
         <v>14.99</v>
@@ -28189,7 +28195,7 @@
         <v>44.7000000000002</v>
       </c>
       <c r="K543" t="n">
-        <v>46.66666666666629</v>
+        <v>74.99999999999977</v>
       </c>
       <c r="L543" t="n">
         <v>15.04</v>
@@ -28240,7 +28246,7 @@
         <v>45.1000000000002</v>
       </c>
       <c r="K544" t="n">
-        <v>15.78947368421046</v>
+        <v>0</v>
       </c>
       <c r="L544" t="n">
         <v>15.06000000000001</v>
@@ -28291,7 +28297,7 @@
         <v>45.1000000000002</v>
       </c>
       <c r="K545" t="n">
-        <v>15.78947368421046</v>
+        <v>11.11111111111109</v>
       </c>
       <c r="L545" t="n">
         <v>15.06000000000001</v>
@@ -28342,7 +28348,7 @@
         <v>45.6000000000002</v>
       </c>
       <c r="K546" t="n">
-        <v>30.43478260869555</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L546" t="n">
         <v>15.12</v>
@@ -28393,7 +28399,7 @@
         <v>45.6000000000002</v>
       </c>
       <c r="K547" t="n">
-        <v>36.36363636363623</v>
+        <v>38.46153846153855</v>
       </c>
       <c r="L547" t="n">
         <v>15.17000000000001</v>
@@ -28444,7 +28450,7 @@
         <v>45.8000000000002</v>
       </c>
       <c r="K548" t="n">
-        <v>21.7391304347825</v>
+        <v>14.28571428571425</v>
       </c>
       <c r="L548" t="n">
         <v>15.2</v>
@@ -28495,7 +28501,7 @@
         <v>45.8000000000002</v>
       </c>
       <c r="K549" t="n">
-        <v>18.18181818181803</v>
+        <v>-9.090909090909207</v>
       </c>
       <c r="L549" t="n">
         <v>15.22</v>
@@ -28546,7 +28552,7 @@
         <v>46.0000000000002</v>
       </c>
       <c r="K550" t="n">
-        <v>13.04347826086957</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L550" t="n">
         <v>15.19</v>
@@ -28597,7 +28603,7 @@
         <v>46.0000000000002</v>
       </c>
       <c r="K551" t="n">
-        <v>13.04347826086957</v>
+        <v>-23.07692307692318</v>
       </c>
       <c r="L551" t="n">
         <v>15.16</v>
@@ -28648,7 +28654,7 @@
         <v>46.1000000000002</v>
       </c>
       <c r="K552" t="n">
-        <v>4.347826086956498</v>
+        <v>-28.57142857142863</v>
       </c>
       <c r="L552" t="n">
         <v>15.12</v>
@@ -28699,7 +28705,7 @@
         <v>46.2000000000002</v>
       </c>
       <c r="K553" t="n">
-        <v>8.333333333333284</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L553" t="n">
         <v>15.09</v>
@@ -28750,7 +28756,7 @@
         <v>46.2000000000002</v>
       </c>
       <c r="K554" t="n">
-        <v>13.04347826086957</v>
+        <v>9.090909090909047</v>
       </c>
       <c r="L554" t="n">
         <v>15.1</v>
@@ -28801,7 +28807,7 @@
         <v>46.3000000000002</v>
       </c>
       <c r="K555" t="n">
-        <v>0</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L555" t="n">
         <v>15.1</v>
@@ -28852,7 +28858,7 @@
         <v>46.3000000000002</v>
       </c>
       <c r="K556" t="n">
-        <v>4.761904761904741</v>
+        <v>-71.42857142857115</v>
       </c>
       <c r="L556" t="n">
         <v>15.05</v>
@@ -28903,7 +28909,7 @@
         <v>46.3000000000002</v>
       </c>
       <c r="K557" t="n">
-        <v>0</v>
+        <v>-59.99999999999979</v>
       </c>
       <c r="L557" t="n">
         <v>15</v>
@@ -28954,7 +28960,7 @@
         <v>46.4000000000002</v>
       </c>
       <c r="K558" t="n">
-        <v>-4.761904761904741</v>
+        <v>-66.66666666666627</v>
       </c>
       <c r="L558" t="n">
         <v>14.96</v>
@@ -29005,7 +29011,7 @@
         <v>46.50000000000021</v>
       </c>
       <c r="K559" t="n">
-        <v>-4.761904761904741</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L559" t="n">
         <v>14.93</v>
@@ -29056,7 +29062,7 @@
         <v>46.60000000000021</v>
       </c>
       <c r="K560" t="n">
-        <v>-15.78947368421052</v>
+        <v>0</v>
       </c>
       <c r="L560" t="n">
         <v>14.93</v>
@@ -29107,7 +29113,7 @@
         <v>46.60000000000021</v>
       </c>
       <c r="K561" t="n">
-        <v>-15.78947368421052</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L561" t="n">
         <v>14.93</v>
@@ -29158,7 +29164,7 @@
         <v>46.70000000000021</v>
       </c>
       <c r="K562" t="n">
-        <v>-19.99999999999995</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L562" t="n">
         <v>14.93</v>
@@ -29209,7 +29215,7 @@
         <v>46.80000000000021</v>
       </c>
       <c r="K563" t="n">
-        <v>-14.28571428571426</v>
+        <v>0</v>
       </c>
       <c r="L563" t="n">
         <v>14.93</v>
@@ -29260,7 +29266,7 @@
         <v>46.80000000000021</v>
       </c>
       <c r="K564" t="n">
-        <v>5.882352941176415</v>
+        <v>19.99999999999964</v>
       </c>
       <c r="L564" t="n">
         <v>14.93</v>
@@ -29311,7 +29317,7 @@
         <v>47.00000000000021</v>
       </c>
       <c r="K565" t="n">
-        <v>-5.263157894736787</v>
+        <v>-14.28571428571403</v>
       </c>
       <c r="L565" t="n">
         <v>14.92</v>
@@ -29362,7 +29368,7 @@
         <v>47.10000000000021</v>
       </c>
       <c r="K566" t="n">
-        <v>-46.66666666666629</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L566" t="n">
         <v>14.9</v>
@@ -29413,7 +29419,7 @@
         <v>47.20000000000022</v>
       </c>
       <c r="K567" t="n">
-        <v>-37.49999999999961</v>
+        <v>0</v>
       </c>
       <c r="L567" t="n">
         <v>14.89</v>
@@ -29464,7 +29470,7 @@
         <v>47.30000000000022</v>
       </c>
       <c r="K568" t="n">
-        <v>-19.99999999999974</v>
+        <v>0</v>
       </c>
       <c r="L568" t="n">
         <v>14.9</v>
@@ -29515,7 +29521,7 @@
         <v>47.40000000000022</v>
       </c>
       <c r="K569" t="n">
-        <v>-12.49999999999983</v>
+        <v>0</v>
       </c>
       <c r="L569" t="n">
         <v>14.91</v>
@@ -29617,7 +29623,7 @@
         <v>47.50000000000022</v>
       </c>
       <c r="K571" t="n">
-        <v>-6.666666666666549</v>
+        <v>0</v>
       </c>
       <c r="L571" t="n">
         <v>14.9</v>
@@ -29668,7 +29674,7 @@
         <v>47.60000000000022</v>
       </c>
       <c r="K572" t="n">
-        <v>6.666666666666549</v>
+        <v>0</v>
       </c>
       <c r="L572" t="n">
         <v>14.91</v>
@@ -29719,7 +29725,7 @@
         <v>47.70000000000022</v>
       </c>
       <c r="K573" t="n">
-        <v>-6.666666666666549</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L573" t="n">
         <v>14.9</v>
@@ -29770,7 +29776,7 @@
         <v>47.80000000000022</v>
       </c>
       <c r="K574" t="n">
-        <v>0</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L574" t="n">
         <v>14.9</v>
@@ -29821,7 +29827,7 @@
         <v>47.90000000000023</v>
       </c>
       <c r="K575" t="n">
-        <v>0</v>
+        <v>24.99999999999978</v>
       </c>
       <c r="L575" t="n">
         <v>14.91</v>
@@ -29872,7 +29878,7 @@
         <v>48.00000000000023</v>
       </c>
       <c r="K576" t="n">
-        <v>5.882352941176366</v>
+        <v>24.99999999999956</v>
       </c>
       <c r="L576" t="n">
         <v>14.94</v>
@@ -29974,7 +29980,7 @@
         <v>48.20000000000023</v>
       </c>
       <c r="K578" t="n">
-        <v>11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L578" t="n">
         <v>14.96</v>
@@ -30025,7 +30031,7 @@
         <v>48.20000000000023</v>
       </c>
       <c r="K579" t="n">
-        <v>5.882352941176366</v>
+        <v>0</v>
       </c>
       <c r="L579" t="n">
         <v>14.96</v>
@@ -30127,7 +30133,7 @@
         <v>48.50000000000023</v>
       </c>
       <c r="K581" t="n">
-        <v>-5.263157894736749</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L581" t="n">
         <v>14.94</v>
@@ -30178,7 +30184,7 @@
         <v>48.70000000000024</v>
       </c>
       <c r="K582" t="n">
-        <v>-9.999999999999911</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L582" t="n">
         <v>14.91</v>
@@ -30229,7 +30235,7 @@
         <v>48.80000000000024</v>
       </c>
       <c r="K583" t="n">
-        <v>-9.999999999999822</v>
+        <v>-19.99999999999964</v>
       </c>
       <c r="L583" t="n">
         <v>14.9</v>
@@ -30280,7 +30286,7 @@
         <v>48.90000000000024</v>
       </c>
       <c r="K584" t="n">
-        <v>-14.28571428571412</v>
+        <v>-19.99999999999982</v>
       </c>
       <c r="L584" t="n">
         <v>14.87</v>
@@ -30331,7 +30337,7 @@
         <v>48.90000000000024</v>
       </c>
       <c r="K585" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333294</v>
       </c>
       <c r="L585" t="n">
         <v>14.85</v>
@@ -30382,7 +30388,7 @@
         <v>49.00000000000024</v>
       </c>
       <c r="K586" t="n">
-        <v>5.263157894736842</v>
+        <v>-11.11111111111091</v>
       </c>
       <c r="L586" t="n">
         <v>14.83</v>
@@ -30433,7 +30439,7 @@
         <v>49.20000000000024</v>
       </c>
       <c r="K587" t="n">
-        <v>-9.999999999999911</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L587" t="n">
         <v>14.8</v>
@@ -30484,7 +30490,7 @@
         <v>49.20000000000024</v>
       </c>
       <c r="K588" t="n">
-        <v>-15.78947368421034</v>
+        <v>-39.99999999999947</v>
       </c>
       <c r="L588" t="n">
         <v>14.76</v>
@@ -30535,7 +30541,7 @@
         <v>49.20000000000024</v>
       </c>
       <c r="K589" t="n">
-        <v>-22.22222222222193</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L589" t="n">
         <v>14.72</v>
@@ -30586,7 +30592,7 @@
         <v>49.30000000000025</v>
       </c>
       <c r="K590" t="n">
-        <v>-15.78947368421034</v>
+        <v>-24.99999999999978</v>
       </c>
       <c r="L590" t="n">
         <v>14.70999999999999</v>
@@ -30637,7 +30643,7 @@
         <v>49.30000000000025</v>
       </c>
       <c r="K591" t="n">
-        <v>-11.11111111111101</v>
+        <v>0</v>
       </c>
       <c r="L591" t="n">
         <v>14.68999999999999</v>
@@ -30688,7 +30694,7 @@
         <v>49.40000000000025</v>
       </c>
       <c r="K592" t="n">
-        <v>-11.11111111111091</v>
+        <v>0</v>
       </c>
       <c r="L592" t="n">
         <v>14.69999999999999</v>
@@ -30739,7 +30745,7 @@
         <v>49.40000000000025</v>
       </c>
       <c r="K593" t="n">
-        <v>-5.882352941176366</v>
+        <v>20</v>
       </c>
       <c r="L593" t="n">
         <v>14.69999999999999</v>

--- a/BackTest/2019-10-20 BackTest DVP.xlsx
+++ b/BackTest/2019-10-20 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -2068,11 +2068,17 @@
         <v>93866.97321176488</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,7 +2111,11 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2134,11 +2144,17 @@
         <v>93866.97321176488</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2167,7 +2183,7 @@
         <v>203074.2141117649</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>13.8</v>
@@ -2175,7 +2191,7 @@
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
@@ -2206,7 +2222,7 @@
         <v>198856.7436117649</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>13.9</v>
@@ -2245,9 +2261,11 @@
         <v>198866.7436117649</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr">
         <is>
@@ -2282,9 +2300,11 @@
         <v>51776.4277117649</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr">
         <is>
@@ -2319,9 +2339,11 @@
         <v>52171.2771117649</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr">
         <is>
@@ -2356,9 +2378,11 @@
         <v>52577.1636117649</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr">
         <is>
@@ -2393,9 +2417,11 @@
         <v>52567.1636117649</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr">
         <is>
@@ -2430,9 +2456,11 @@
         <v>52577.4314117649</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr">
         <is>
@@ -2467,9 +2495,11 @@
         <v>52577.4314117649</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>14</v>
+      </c>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr">
         <is>
@@ -2504,7 +2534,7 @@
         <v>52577.4314117649</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>14</v>
@@ -2543,9 +2573,11 @@
         <v>52567.4314117649</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14</v>
+      </c>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr">
         <is>
@@ -2580,9 +2612,11 @@
         <v>52567.4314117649</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr">
         <is>
@@ -2617,7 +2651,7 @@
         <v>55396.6244117649</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>13.9</v>
@@ -2656,7 +2690,7 @@
         <v>269771.0428117649</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>14</v>
@@ -2695,7 +2729,7 @@
         <v>411948.6650117649</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>14.2</v>
@@ -2845,9 +2879,11 @@
         <v>-36109.14438823517</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I72" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr">
         <is>
@@ -2882,9 +2918,11 @@
         <v>-36109.14438823517</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr">
         <is>
@@ -2919,9 +2957,11 @@
         <v>-36109.14438823517</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I74" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
@@ -2956,9 +2996,11 @@
         <v>-36109.14438823517</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
@@ -2993,9 +3035,11 @@
         <v>-36079.14438823517</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I76" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3030,9 +3074,11 @@
         <v>-36089.14438823517</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I77" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3067,9 +3113,11 @@
         <v>-36089.14438823517</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3104,9 +3152,11 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I79" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3141,9 +3191,11 @@
         <v>-12143.34008823517</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I80" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3178,9 +3230,11 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3215,9 +3269,11 @@
         <v>-12143.34008823517</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3252,9 +3308,11 @@
         <v>-12143.34008823517</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I83" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3289,9 +3347,11 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I84" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3326,9 +3386,11 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3363,9 +3425,11 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I86" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3400,9 +3464,11 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I87" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3437,9 +3503,11 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3474,9 +3542,11 @@
         <v>-12123.34008823517</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3511,9 +3581,11 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3548,9 +3620,11 @@
         <v>-12123.34008823517</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr">
         <is>
@@ -3585,7 +3659,7 @@
         <v>391684.2131117649</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>13.7</v>
@@ -3624,7 +3698,7 @@
         <v>391684.2131117649</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>13.8</v>
@@ -3663,7 +3737,7 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>13.8</v>
@@ -3702,7 +3776,7 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>13.7</v>
@@ -3741,7 +3815,7 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>13.7</v>
@@ -3780,9 +3854,11 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3817,7 +3893,7 @@
         <v>372086.6939117649</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>13.7</v>
@@ -3856,7 +3932,7 @@
         <v>373337.5453117649</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>13.6</v>
@@ -3895,7 +3971,7 @@
         <v>424431.4926117649</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>13.8</v>
@@ -3934,7 +4010,7 @@
         <v>424431.4926117649</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>13.9</v>
@@ -3973,11 +4049,9 @@
         <v>480284.4536117649</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
-      </c>
-      <c r="I102" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr">
         <is>
@@ -4012,11 +4086,9 @@
         <v>487128.8821117649</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
-      </c>
-      <c r="I103" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr">
         <is>
@@ -4865,7 +4937,7 @@
         <v>198471.5040117648</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>13.9</v>
@@ -4904,7 +4976,7 @@
         <v>-119670.6756882351</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>13.9</v>
@@ -4943,7 +5015,7 @@
         <v>-151027.6500882352</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>13.8</v>
@@ -4982,7 +5054,7 @@
         <v>-151027.6500882352</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>13.7</v>
@@ -5021,7 +5093,7 @@
         <v>-151027.6500882352</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>13.7</v>
@@ -5060,7 +5132,7 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>13.7</v>
@@ -5099,7 +5171,7 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>13.6</v>
@@ -5138,7 +5210,7 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>13.6</v>
@@ -5177,7 +5249,7 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>13.6</v>
@@ -5216,7 +5288,7 @@
         <v>-147944.7922882352</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>13.6</v>
@@ -5255,7 +5327,7 @@
         <v>-147944.7922882352</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>13.9</v>
@@ -5294,7 +5366,7 @@
         <v>-149863.4021882352</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>13.9</v>
@@ -5333,9 +5405,11 @@
         <v>-149873.4021882352</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5370,9 +5444,11 @@
         <v>-149873.4021882352</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5407,9 +5483,11 @@
         <v>-149707.6722882352</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr">
         <is>
@@ -5444,9 +5522,11 @@
         <v>-149707.6722882352</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I141" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr">
         <is>
@@ -5481,9 +5561,11 @@
         <v>-149707.6722882352</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr">
         <is>
@@ -5518,9 +5600,11 @@
         <v>-149707.6722882352</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr">
         <is>
@@ -5555,9 +5639,11 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5592,9 +5678,11 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5629,7 +5717,7 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>13.8</v>
@@ -5668,9 +5756,11 @@
         <v>-171885.7754882352</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5705,9 +5795,11 @@
         <v>-171875.7754882352</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5742,9 +5834,11 @@
         <v>-171875.7754882352</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5779,9 +5873,11 @@
         <v>-175072.7064882352</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5816,9 +5912,11 @@
         <v>-175062.7064882352</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5853,9 +5951,11 @@
         <v>-175062.7064882352</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5890,7 +5990,7 @@
         <v>-163085.2425882352</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>13.8</v>
@@ -5929,7 +6029,7 @@
         <v>-163085.2425882352</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>13.9</v>
@@ -5968,7 +6068,7 @@
         <v>-211336.7811882352</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>13.9</v>
@@ -6007,7 +6107,7 @@
         <v>-208381.3534882352</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>13.7</v>
@@ -6046,7 +6146,7 @@
         <v>-208381.3534882352</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>13.9</v>
@@ -6085,7 +6185,7 @@
         <v>-208381.3534882352</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>13.9</v>
@@ -6124,7 +6224,7 @@
         <v>-225955.4471882352</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>13.9</v>
@@ -6163,7 +6263,7 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>13.8</v>
@@ -6202,7 +6302,7 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>13.9</v>
@@ -6241,7 +6341,7 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>13.9</v>
@@ -6280,7 +6380,7 @@
         <v>156266.8032117648</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>13.9</v>
@@ -6319,7 +6419,7 @@
         <v>156266.8032117648</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>14</v>
@@ -6469,9 +6569,11 @@
         <v>118497.8204117648</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I168" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6950,11 +7052,9 @@
         <v>432781.5421788978</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr">
         <is>
@@ -6989,11 +7089,9 @@
         <v>684036.0289788977</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr">
         <is>
@@ -7028,11 +7126,9 @@
         <v>684036.0289788977</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
-      </c>
-      <c r="I183" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr">
         <is>
@@ -7067,11 +7163,9 @@
         <v>683996.0789788978</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
-      </c>
-      <c r="I184" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr">
         <is>
@@ -7106,11 +7200,9 @@
         <v>1027432.724778898</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
-      </c>
-      <c r="I185" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr">
         <is>
@@ -7145,11 +7237,9 @@
         <v>757192.4544788979</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
-      </c>
-      <c r="I186" t="n">
-        <v>14.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr">
         <is>
@@ -7184,11 +7274,9 @@
         <v>757354.6222788979</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
-      </c>
-      <c r="I187" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr">
         <is>
@@ -7223,11 +7311,9 @@
         <v>748167.4288788979</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr">
         <is>
@@ -7262,11 +7348,9 @@
         <v>602495.1856788979</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr">
         <is>
@@ -7338,11 +7422,9 @@
         <v>196211.2001788979</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr">
         <is>
@@ -7377,7 +7459,7 @@
         <v>196211.2001788979</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>14</v>
@@ -7416,7 +7498,7 @@
         <v>196211.2001788979</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>14</v>
@@ -7455,7 +7537,7 @@
         <v>92363.86187889788</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>14</v>
@@ -7494,7 +7576,7 @@
         <v>-16390.03022110212</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>13.9</v>
@@ -7533,9 +7615,11 @@
         <v>-16390.03022110212</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr">
         <is>
@@ -7570,7 +7654,7 @@
         <v>-16390.03022110212</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>13.8</v>
@@ -7609,7 +7693,7 @@
         <v>-16341.84902110212</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>13.8</v>
@@ -7648,7 +7732,7 @@
         <v>-16341.84902110212</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>14</v>
@@ -7687,9 +7771,11 @@
         <v>-16134.20822110212</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>14</v>
+      </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr">
         <is>
@@ -7724,9 +7810,11 @@
         <v>-16164.20822110212</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>14.2</v>
+      </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr">
         <is>
@@ -7761,9 +7849,11 @@
         <v>-16164.20822110212</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr">
         <is>
@@ -7835,9 +7925,11 @@
         <v>210704.3250788979</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
-      </c>
-      <c r="I204" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>14</v>
+      </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
@@ -7872,9 +7964,11 @@
         <v>210694.3250788979</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
-      </c>
-      <c r="I205" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
@@ -7909,9 +8003,11 @@
         <v>278442.6247788979</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
-      </c>
-      <c r="I206" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I206" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
@@ -7946,9 +8042,11 @@
         <v>278442.6247788979</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
-      </c>
-      <c r="I207" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I207" t="n">
+        <v>14</v>
+      </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
@@ -7983,9 +8081,11 @@
         <v>278442.6247788979</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
-      </c>
-      <c r="I208" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I208" t="n">
+        <v>14</v>
+      </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
@@ -8020,9 +8120,11 @@
         <v>253442.6247788979</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
-      </c>
-      <c r="I209" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I209" t="n">
+        <v>14</v>
+      </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
@@ -8057,9 +8159,11 @@
         <v>253442.6247788979</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
@@ -8094,9 +8198,11 @@
         <v>253656.8389788978</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
@@ -8168,9 +8274,11 @@
         <v>253656.8389788978</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>14</v>
+      </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
@@ -8279,9 +8387,11 @@
         <v>251781.8390788978</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
@@ -8316,9 +8426,11 @@
         <v>251800.5532788978</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
@@ -8353,9 +8465,11 @@
         <v>251800.5532788978</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>14</v>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
@@ -8390,7 +8504,7 @@
         <v>252010.5532788978</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>14</v>
@@ -8429,9 +8543,11 @@
         <v>252010.5532788978</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
@@ -8466,9 +8582,11 @@
         <v>252020.5532788978</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
@@ -9428,11 +9546,9 @@
         <v>1510327.473805658</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
@@ -9578,11 +9694,9 @@
         <v>1038141.931605658</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
@@ -9617,11 +9731,9 @@
         <v>1048582.362905658</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>14.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
@@ -9989,11 +10101,9 @@
         <v>774362.8164056583</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
-      </c>
-      <c r="I262" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
@@ -10028,7 +10138,7 @@
         <v>777315.7198056582</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>14.2</v>
@@ -12842,16 +12952,18 @@
         <v>5496477.561542336</v>
       </c>
       <c r="H339" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L339" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
       <c r="M339" t="inlineStr"/>
     </row>
     <row r="340">
@@ -12877,11 +12989,15 @@
         <v>5814807.648842336</v>
       </c>
       <c r="H340" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12914,7 +13030,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12947,7 +13067,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12980,7 +13104,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13013,7 +13141,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13046,7 +13178,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13079,7 +13215,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13112,7 +13252,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13145,7 +13289,11 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13178,7 +13326,11 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13211,7 +13363,11 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13244,7 +13400,11 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13273,11 +13433,15 @@
         <v>6906241.498142336</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13306,11 +13470,15 @@
         <v>7070577.413642336</v>
       </c>
       <c r="H353" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13339,11 +13507,15 @@
         <v>6386051.609642336</v>
       </c>
       <c r="H354" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13372,11 +13544,15 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H355" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13405,14 +13581,16 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H356" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L356" t="inlineStr"/>
       <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
@@ -13438,7 +13616,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13471,7 +13649,7 @@
         <v>6101728.019042335</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13504,7 +13682,7 @@
         <v>6081012.123742335</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13537,7 +13715,7 @@
         <v>6081012.123742335</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13570,7 +13748,7 @@
         <v>6056698.983042335</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13603,7 +13781,7 @@
         <v>6056698.983042335</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13636,7 +13814,7 @@
         <v>6147607.129116019</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13669,7 +13847,7 @@
         <v>6144884.537616019</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13702,7 +13880,7 @@
         <v>6125409.132016019</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13735,7 +13913,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13768,7 +13946,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13801,7 +13979,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13834,7 +14012,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -13867,7 +14045,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -13900,7 +14078,7 @@
         <v>6084077.043216019</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -13933,7 +14111,7 @@
         <v>6221032.187816019</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -13966,7 +14144,7 @@
         <v>6221032.187816019</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -13999,7 +14177,7 @@
         <v>6514037.419561715</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14032,7 +14210,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14065,7 +14243,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14098,7 +14276,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14131,7 +14309,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14164,7 +14342,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14560,7 +14738,7 @@
         <v>6410086.481992635</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14593,7 +14771,7 @@
         <v>6280743.817992635</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14626,7 +14804,7 @@
         <v>6287438.487992635</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14659,7 +14837,7 @@
         <v>5418575.845492635</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14692,7 +14870,7 @@
         <v>5418595.845492635</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14725,7 +14903,7 @@
         <v>5080732.360592635</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14758,7 +14936,7 @@
         <v>5518417.697192635</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14791,7 +14969,7 @@
         <v>5485387.697192635</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14824,7 +15002,7 @@
         <v>5248961.198692636</v>
       </c>
       <c r="H399" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14857,7 +15035,7 @@
         <v>4847262.069992635</v>
       </c>
       <c r="H400" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -14890,7 +15068,7 @@
         <v>4847302.069992635</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -14923,7 +15101,7 @@
         <v>4769339.339892635</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14956,7 +15134,7 @@
         <v>4769339.339892635</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14989,7 +15167,7 @@
         <v>4769339.339892635</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15022,7 +15200,7 @@
         <v>4769339.339892635</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15055,7 +15233,7 @@
         <v>4804507.762392635</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15088,7 +15266,7 @@
         <v>4804507.762392635</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15121,7 +15299,7 @@
         <v>4804507.762392635</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15154,7 +15332,7 @@
         <v>4842834.600192635</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15187,7 +15365,7 @@
         <v>4835625.564492635</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16045,7 +16223,7 @@
         <v>5578537.831192638</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -16078,7 +16256,7 @@
         <v>5578537.831192638</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -16111,7 +16289,7 @@
         <v>5578537.831192638</v>
       </c>
       <c r="H438" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -16738,7 +16916,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -16870,7 +17048,7 @@
         <v>5766445.620692638</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -16903,7 +17081,7 @@
         <v>5766445.620692638</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -16936,7 +17114,7 @@
         <v>5766445.620692638</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -16969,7 +17147,7 @@
         <v>5766445.620692638</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17002,7 +17180,7 @@
         <v>5766445.620692638</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17035,7 +17213,7 @@
         <v>5766445.620692638</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17068,7 +17246,7 @@
         <v>5749510.341292637</v>
       </c>
       <c r="H467" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -17101,7 +17279,7 @@
         <v>5739510.341292637</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17134,7 +17312,7 @@
         <v>6090202.826192637</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17167,7 +17345,7 @@
         <v>6090202.826192637</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17200,7 +17378,7 @@
         <v>6236984.744492637</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17233,7 +17411,7 @@
         <v>6192524.803692637</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17266,7 +17444,7 @@
         <v>6192534.803692637</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17299,7 +17477,7 @@
         <v>6192513.915692637</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -17332,7 +17510,7 @@
         <v>5339529.820392637</v>
       </c>
       <c r="H475" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -18553,7 +18731,7 @@
         <v>4984063.818381897</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -18619,7 +18797,7 @@
         <v>4953373.498781897</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -18751,7 +18929,7 @@
         <v>4956848.606381896</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -18850,7 +19028,7 @@
         <v>5316968.781281896</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -19411,7 +19589,7 @@
         <v>5260119.651082567</v>
       </c>
       <c r="H538" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19642,7 +19820,7 @@
         <v>4938952.152582567</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -21457,7 +21635,7 @@
         <v>4720174.051413527</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -21490,7 +21668,7 @@
         <v>4720174.051413527</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -21523,7 +21701,7 @@
         <v>4720174.051413527</v>
       </c>
       <c r="H602" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -21556,7 +21734,7 @@
         <v>4451274.908613527</v>
       </c>
       <c r="H603" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -21622,7 +21800,7 @@
         <v>5065739.969613527</v>
       </c>
       <c r="H605" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -21787,7 +21965,7 @@
         <v>4398653.264562559</v>
       </c>
       <c r="H610" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -21886,7 +22064,7 @@
         <v>4423286.646929226</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22150,7 +22328,7 @@
         <v>4423917.427329225</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22183,7 +22361,7 @@
         <v>4431113.493929225</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22216,7 +22394,7 @@
         <v>4431113.493929225</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22249,7 +22427,7 @@
         <v>4365217.693829225</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22282,7 +22460,7 @@
         <v>4172176.540329225</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22315,7 +22493,7 @@
         <v>4172187.540329225</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22348,7 +22526,7 @@
         <v>4174011.557029225</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22381,7 +22559,7 @@
         <v>4179810.753629225</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22447,7 +22625,7 @@
         <v>4079810.753629225</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -22480,7 +22658,7 @@
         <v>4105870.182129225</v>
       </c>
       <c r="H631" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22777,7 +22955,7 @@
         <v>4108611.275929225</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22810,7 +22988,7 @@
         <v>3874736.923229225</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22821,6 +22999,6 @@
       <c r="M641" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-20 BackTest DVP.xlsx
+++ b/BackTest/2019-10-20 BackTest DVP.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1111,7 +1111,7 @@
         <v>129178.5095117647</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1171380.253911765</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1236280.397211765</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1236280.397211765</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1516506.476611765</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>918768.8057117648</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>472751.4074117648</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>497749.7449117649</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>577021.4598117649</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>445068.5747117649</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>445068.5747117649</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2068,945 +2068,809 @@
         <v>93866.97321176488</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C52" t="n">
         <v>13.8</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr">
+      <c r="D52" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E52" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>60</v>
+      </c>
+      <c r="G52" t="n">
+        <v>93866.97321176488</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C53" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D53" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E53" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F53" t="n">
+        <v>30</v>
+      </c>
+      <c r="G53" t="n">
+        <v>93866.97321176488</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C54" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D54" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E54" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F54" t="n">
+        <v>109207.2409</v>
+      </c>
+      <c r="G54" t="n">
+        <v>203074.2141117649</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C55" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D55" t="n">
+        <v>14</v>
+      </c>
+      <c r="E55" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F55" t="n">
+        <v>4217.4705</v>
+      </c>
+      <c r="G55" t="n">
+        <v>198856.7436117649</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D56" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E56" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>10</v>
+      </c>
+      <c r="G56" t="n">
+        <v>198866.7436117649</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D57" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="E57" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F57" t="n">
+        <v>147090.3159</v>
+      </c>
+      <c r="G57" t="n">
+        <v>51776.4277117649</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C58" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D58" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E58" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F58" t="n">
+        <v>394.8494</v>
+      </c>
+      <c r="G58" t="n">
+        <v>52171.2771117649</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C59" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D59" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E59" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F59" t="n">
+        <v>405.8865</v>
+      </c>
+      <c r="G59" t="n">
+        <v>52577.1636117649</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C60" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D60" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E60" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>10</v>
+      </c>
+      <c r="G60" t="n">
+        <v>52567.1636117649</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>14</v>
+      </c>
+      <c r="C61" t="n">
+        <v>14</v>
+      </c>
+      <c r="D61" t="n">
+        <v>14</v>
+      </c>
+      <c r="E61" t="n">
+        <v>14</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10.2678</v>
+      </c>
+      <c r="G61" t="n">
+        <v>52577.4314117649</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>14</v>
+      </c>
+      <c r="D62" t="n">
+        <v>14</v>
+      </c>
+      <c r="E62" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F62" t="n">
+        <v>45.3928</v>
+      </c>
+      <c r="G62" t="n">
+        <v>52577.4314117649</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C63" t="n">
+        <v>14</v>
+      </c>
+      <c r="D63" t="n">
+        <v>14</v>
+      </c>
+      <c r="E63" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F63" t="n">
+        <v>25.3571</v>
+      </c>
+      <c r="G63" t="n">
+        <v>52577.4314117649</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C64" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D64" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E64" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>10</v>
+      </c>
+      <c r="G64" t="n">
+        <v>52567.4314117649</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D65" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E65" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>5961.1347</v>
+      </c>
+      <c r="G65" t="n">
+        <v>52567.4314117649</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>14</v>
+      </c>
+      <c r="C66" t="n">
+        <v>14</v>
+      </c>
+      <c r="D66" t="n">
+        <v>14</v>
+      </c>
+      <c r="E66" t="n">
+        <v>14</v>
+      </c>
+      <c r="F66" t="n">
+        <v>2829.193</v>
+      </c>
+      <c r="G66" t="n">
+        <v>55396.6244117649</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="D67" t="n">
+        <v>14.2</v>
+      </c>
+      <c r="E67" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>214374.4184</v>
+      </c>
+      <c r="G67" t="n">
+        <v>269771.0428117649</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C68" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="D68" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>142177.6222</v>
+      </c>
+      <c r="G68" t="n">
+        <v>411948.6650117649</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E69" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>30</v>
+      </c>
+      <c r="G69" t="n">
+        <v>411918.6650117649</v>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="D70" t="n">
+        <v>14.1</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F70" t="n">
+        <v>467549.0454</v>
+      </c>
+      <c r="G70" t="n">
+        <v>-55630.38038823515</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="C71" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="D71" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E71" t="n">
+        <v>13.8</v>
+      </c>
+      <c r="F71" t="n">
+        <v>153408.0941</v>
+      </c>
+      <c r="G71" t="n">
+        <v>97777.71371176484</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C72" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D72" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E72" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F72" t="n">
+        <v>133886.8581</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-36109.14438823517</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="C73" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D73" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="E73" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F73" t="n">
+        <v>512549.9339</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-36109.14438823517</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C74" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D74" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E74" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F74" t="n">
+        <v>351.7985611510791</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-36109.14438823517</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="C75" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="D75" t="n">
+        <v>13.9</v>
+      </c>
+      <c r="E75" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="F75" t="n">
+        <v>20</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-36109.14438823517</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+      <c r="I75" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C52" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D52" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E52" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F52" t="n">
-        <v>60</v>
-      </c>
-      <c r="G52" t="n">
-        <v>93866.97321176488</v>
-      </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C53" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D53" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E53" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F53" t="n">
-        <v>30</v>
-      </c>
-      <c r="G53" t="n">
-        <v>93866.97321176488</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C54" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D54" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E54" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F54" t="n">
-        <v>109207.2409</v>
-      </c>
-      <c r="G54" t="n">
-        <v>203074.2141117649</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C55" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D55" t="n">
-        <v>14</v>
-      </c>
-      <c r="E55" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F55" t="n">
-        <v>4217.4705</v>
-      </c>
-      <c r="G55" t="n">
-        <v>198856.7436117649</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C56" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E56" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F56" t="n">
-        <v>10</v>
-      </c>
-      <c r="G56" t="n">
-        <v>198866.7436117649</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D57" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F57" t="n">
-        <v>147090.3159</v>
-      </c>
-      <c r="G57" t="n">
-        <v>51776.4277117649</v>
-      </c>
-      <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D58" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F58" t="n">
-        <v>394.8494</v>
-      </c>
-      <c r="G58" t="n">
-        <v>52171.2771117649</v>
-      </c>
-      <c r="H58" t="n">
-        <v>1</v>
-      </c>
-      <c r="I58" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C59" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D59" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F59" t="n">
-        <v>405.8865</v>
-      </c>
-      <c r="G59" t="n">
-        <v>52577.1636117649</v>
-      </c>
-      <c r="H59" t="n">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C60" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D60" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E60" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F60" t="n">
-        <v>10</v>
-      </c>
-      <c r="G60" t="n">
-        <v>52567.1636117649</v>
-      </c>
-      <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="n">
-        <v>14</v>
-      </c>
-      <c r="C61" t="n">
-        <v>14</v>
-      </c>
-      <c r="D61" t="n">
-        <v>14</v>
-      </c>
-      <c r="E61" t="n">
-        <v>14</v>
-      </c>
-      <c r="F61" t="n">
-        <v>10.2678</v>
-      </c>
-      <c r="G61" t="n">
-        <v>52577.4314117649</v>
-      </c>
-      <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C62" t="n">
-        <v>14</v>
-      </c>
-      <c r="D62" t="n">
-        <v>14</v>
-      </c>
-      <c r="E62" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F62" t="n">
-        <v>45.3928</v>
-      </c>
-      <c r="G62" t="n">
-        <v>52577.4314117649</v>
-      </c>
-      <c r="H62" t="n">
-        <v>1</v>
-      </c>
-      <c r="I62" t="n">
-        <v>14</v>
-      </c>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C63" t="n">
-        <v>14</v>
-      </c>
-      <c r="D63" t="n">
-        <v>14</v>
-      </c>
-      <c r="E63" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F63" t="n">
-        <v>25.3571</v>
-      </c>
-      <c r="G63" t="n">
-        <v>52577.4314117649</v>
-      </c>
-      <c r="H63" t="n">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>14</v>
-      </c>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C64" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D64" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E64" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F64" t="n">
-        <v>10</v>
-      </c>
-      <c r="G64" t="n">
-        <v>52567.4314117649</v>
-      </c>
-      <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>14</v>
-      </c>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C65" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D65" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="F65" t="n">
-        <v>5961.1347</v>
-      </c>
-      <c r="G65" t="n">
-        <v>52567.4314117649</v>
-      </c>
-      <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="n">
-        <v>14</v>
-      </c>
-      <c r="C66" t="n">
-        <v>14</v>
-      </c>
-      <c r="D66" t="n">
-        <v>14</v>
-      </c>
-      <c r="E66" t="n">
-        <v>14</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2829.193</v>
-      </c>
-      <c r="G66" t="n">
-        <v>55396.6244117649</v>
-      </c>
-      <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C67" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="D67" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="E67" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F67" t="n">
-        <v>214374.4184</v>
-      </c>
-      <c r="G67" t="n">
-        <v>269771.0428117649</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>14</v>
-      </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C68" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="D68" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="E68" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F68" t="n">
-        <v>142177.6222</v>
-      </c>
-      <c r="G68" t="n">
-        <v>411948.6650117649</v>
-      </c>
-      <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>14.2</v>
-      </c>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C69" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E69" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="F69" t="n">
-        <v>30</v>
-      </c>
-      <c r="G69" t="n">
-        <v>411918.6650117649</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="C70" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="D70" t="n">
-        <v>14.1</v>
-      </c>
-      <c r="E70" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F70" t="n">
-        <v>467549.0454</v>
-      </c>
-      <c r="G70" t="n">
-        <v>-55630.38038823515</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="C71" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="D71" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E71" t="n">
-        <v>13.8</v>
-      </c>
-      <c r="F71" t="n">
-        <v>153408.0941</v>
-      </c>
-      <c r="G71" t="n">
-        <v>97777.71371176484</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C72" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D72" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E72" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F72" t="n">
-        <v>133886.8581</v>
-      </c>
-      <c r="G72" t="n">
-        <v>-36109.14438823517</v>
-      </c>
-      <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C73" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D73" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="E73" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F73" t="n">
-        <v>512549.9339</v>
-      </c>
-      <c r="G73" t="n">
-        <v>-36109.14438823517</v>
-      </c>
-      <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C74" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D74" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E74" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F74" t="n">
-        <v>351.7985611510791</v>
-      </c>
-      <c r="G74" t="n">
-        <v>-36109.14438823517</v>
-      </c>
-      <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="C75" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D75" t="n">
-        <v>13.9</v>
-      </c>
-      <c r="E75" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="F75" t="n">
-        <v>20</v>
-      </c>
-      <c r="G75" t="n">
-        <v>-36109.14438823517</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3035,11 +2899,9 @@
         <v>-36079.14438823517</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr">
         <is>
@@ -3074,11 +2936,9 @@
         <v>-36089.14438823517</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr">
         <is>
@@ -3269,11 +3129,9 @@
         <v>-12143.34008823517</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr">
         <is>
@@ -3698,11 +3556,9 @@
         <v>391684.2131117649</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3737,11 +3593,9 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr">
         <is>
@@ -3776,11 +3630,9 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3815,11 +3667,9 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3854,11 +3704,9 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3893,11 +3741,9 @@
         <v>372086.6939117649</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3971,11 +3817,9 @@
         <v>424431.4926117649</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -4010,11 +3854,9 @@
         <v>424431.4926117649</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -4937,11 +4779,9 @@
         <v>198471.5040117648</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr">
         <is>
@@ -4976,11 +4816,9 @@
         <v>-119670.6756882351</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr">
         <is>
@@ -5015,11 +4853,9 @@
         <v>-151027.6500882352</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr">
         <is>
@@ -5054,11 +4890,9 @@
         <v>-151027.6500882352</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr">
         <is>
@@ -5093,11 +4927,9 @@
         <v>-151027.6500882352</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr">
         <is>
@@ -5132,11 +4964,9 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr">
         <is>
@@ -5171,11 +5001,9 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5210,11 +5038,9 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5249,11 +5075,9 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5288,11 +5112,9 @@
         <v>-147944.7922882352</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5327,11 +5149,9 @@
         <v>-147944.7922882352</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5366,11 +5186,9 @@
         <v>-149863.4021882352</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5405,11 +5223,9 @@
         <v>-149873.4021882352</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5444,11 +5260,9 @@
         <v>-149873.4021882352</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>13.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5639,11 +5453,9 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5678,11 +5490,9 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5717,11 +5527,9 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5756,11 +5564,9 @@
         <v>-171885.7754882352</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5795,11 +5601,9 @@
         <v>-171875.7754882352</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5834,11 +5638,9 @@
         <v>-171875.7754882352</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5873,11 +5675,9 @@
         <v>-175072.7064882352</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5912,11 +5712,9 @@
         <v>-175062.7064882352</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5951,11 +5749,9 @@
         <v>-175062.7064882352</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5990,11 +5786,9 @@
         <v>-163085.2425882352</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -6068,11 +5862,9 @@
         <v>-211336.7811882352</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr">
         <is>
@@ -6107,11 +5899,9 @@
         <v>-208381.3534882352</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr">
         <is>
@@ -6146,11 +5936,9 @@
         <v>-208381.3534882352</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr">
         <is>
@@ -6185,11 +5973,9 @@
         <v>-208381.3534882352</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr">
         <is>
@@ -6224,11 +6010,9 @@
         <v>-225955.4471882352</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr">
         <is>
@@ -6419,11 +6203,9 @@
         <v>156266.8032117648</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr">
         <is>
@@ -6569,11 +6351,9 @@
         <v>118497.8204117648</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr">
         <is>
@@ -6904,18 +6684,16 @@
         <v>407404.3593117649</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
@@ -6941,15 +6719,11 @@
         <v>407404.3593117649</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6982,11 +6756,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7015,15 +6785,11 @@
         <v>432821.4921788978</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7052,15 +6818,11 @@
         <v>432781.5421788978</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7089,15 +6851,11 @@
         <v>684036.0289788977</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7126,15 +6884,11 @@
         <v>684036.0289788977</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7163,15 +6917,11 @@
         <v>683996.0789788978</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7200,15 +6950,11 @@
         <v>1027432.724778898</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7237,15 +6983,11 @@
         <v>757192.4544788979</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7274,15 +7016,11 @@
         <v>757354.6222788979</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +7053,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7348,15 +7082,11 @@
         <v>602495.1856788979</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7389,11 +7119,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7426,11 +7152,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7459,17 +7181,11 @@
         <v>196211.2001788979</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7498,17 +7214,11 @@
         <v>196211.2001788979</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7537,17 +7247,11 @@
         <v>92363.86187889788</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7576,17 +7280,11 @@
         <v>-16390.03022110212</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7615,17 +7313,11 @@
         <v>-16390.03022110212</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7654,17 +7346,11 @@
         <v>-16390.03022110212</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7693,17 +7379,11 @@
         <v>-16341.84902110212</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7732,17 +7412,11 @@
         <v>-16341.84902110212</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7771,17 +7445,11 @@
         <v>-16134.20822110212</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7810,17 +7478,11 @@
         <v>-16164.20822110212</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7849,17 +7511,11 @@
         <v>-16164.20822110212</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7892,11 +7548,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7925,17 +7577,11 @@
         <v>210704.3250788979</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7964,17 +7610,11 @@
         <v>210694.3250788979</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>14.1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8003,17 +7643,11 @@
         <v>278442.6247788979</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8042,17 +7676,11 @@
         <v>278442.6247788979</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8081,17 +7709,11 @@
         <v>278442.6247788979</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8120,17 +7742,11 @@
         <v>253442.6247788979</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8159,17 +7775,11 @@
         <v>253442.6247788979</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8198,17 +7808,11 @@
         <v>253656.8389788978</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8241,11 +7845,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8274,17 +7874,11 @@
         <v>253656.8389788978</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8317,11 +7911,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8354,11 +7944,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8387,17 +7973,11 @@
         <v>251781.8390788978</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8426,17 +8006,11 @@
         <v>251800.5532788978</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8465,17 +8039,11 @@
         <v>251800.5532788978</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8504,17 +8072,11 @@
         <v>252010.5532788978</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8543,17 +8105,11 @@
         <v>252010.5532788978</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8582,17 +8138,11 @@
         <v>252020.5532788978</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>14.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8625,11 +8175,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8662,11 +8208,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8699,11 +8241,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8736,11 +8274,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8773,11 +8307,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8810,11 +8340,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8847,11 +8373,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8884,11 +8406,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8921,11 +8439,7 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8958,11 +8472,7 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8995,11 +8505,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9032,11 +8538,7 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9069,11 +8571,7 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9106,11 +8604,7 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9143,11 +8637,7 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9180,11 +8670,7 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9217,11 +8703,7 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9254,11 +8736,7 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9291,11 +8769,7 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9328,11 +8802,7 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9365,11 +8835,7 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9402,11 +8868,7 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9439,11 +8901,7 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9472,15 +8930,11 @@
         <v>1431752.966305658</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9509,15 +8963,11 @@
         <v>1429844.939605658</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9546,15 +8996,11 @@
         <v>1510327.473805658</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9583,15 +9029,11 @@
         <v>1510327.473805658</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9620,15 +9062,11 @@
         <v>1060317.473805658</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9657,15 +9095,11 @@
         <v>1038141.931605658</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9694,15 +9128,11 @@
         <v>1038141.931605658</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9731,15 +9161,11 @@
         <v>1048582.362905658</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9768,15 +9194,11 @@
         <v>1010401.489805658</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9805,15 +9227,11 @@
         <v>1010527.791105658</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9842,15 +9260,11 @@
         <v>993088.9799056582</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9879,15 +9293,11 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9916,15 +9326,11 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9953,15 +9359,11 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9990,15 +9392,11 @@
         <v>932979.7304056583</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10031,11 +9429,7 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10068,11 +9462,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10105,11 +9495,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10138,17 +9524,11 @@
         <v>777315.7198056582</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>14.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10181,11 +9561,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10218,11 +9594,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10255,11 +9627,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10292,11 +9660,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10325,15 +9689,11 @@
         <v>776564.6390056582</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10362,15 +9722,11 @@
         <v>732780.9778056582</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10399,15 +9755,11 @@
         <v>733242.6329056582</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -10440,11 +9792,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -10473,15 +9821,11 @@
         <v>733242.6329056582</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -10510,15 +9854,11 @@
         <v>733232.6329056582</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -10547,15 +9887,11 @@
         <v>821486.6971056582</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -10584,15 +9920,11 @@
         <v>797536.7897056582</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -10621,15 +9953,11 @@
         <v>797536.7897056582</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10658,15 +9986,11 @@
         <v>963622.2106056582</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10695,15 +10019,11 @@
         <v>950153.4799056583</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10732,15 +10052,11 @@
         <v>954152.2308056583</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10769,15 +10085,11 @@
         <v>1670233.761305658</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10806,15 +10118,11 @@
         <v>1620213.761305658</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10843,15 +10151,11 @@
         <v>1622945.346305658</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10880,15 +10184,11 @@
         <v>1622945.346305658</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10921,11 +10221,7 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10958,11 +10254,7 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10995,11 +10287,7 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11032,11 +10320,7 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -11069,11 +10353,7 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -11106,11 +10386,7 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -11143,11 +10419,7 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -11180,11 +10452,7 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -11217,11 +10485,7 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -11254,11 +10518,7 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -11291,11 +10551,7 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -11328,11 +10584,7 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -11365,11 +10617,7 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -11402,11 +10650,7 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -11439,11 +10683,7 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -11476,11 +10716,7 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -11513,11 +10749,7 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -11550,11 +10782,7 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -11587,11 +10815,7 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -11624,11 +10848,7 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -11661,11 +10881,7 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -11698,11 +10914,7 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -11735,11 +10947,7 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -11772,11 +10980,7 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11809,11 +11013,7 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11846,11 +11046,7 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11883,11 +11079,7 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11920,11 +11112,7 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11957,11 +11145,7 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11994,11 +11178,7 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -12031,11 +11211,7 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -12068,11 +11244,7 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -12105,11 +11277,7 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -12142,11 +11310,7 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -12179,11 +11343,7 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -12216,11 +11376,7 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -12253,11 +11409,7 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -12290,11 +11442,7 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -12327,11 +11475,7 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +11508,7 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -12401,11 +11541,7 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -12438,11 +11574,7 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -12475,11 +11607,7 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -12512,11 +11640,7 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -12549,11 +11673,7 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -12586,11 +11706,7 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -12623,11 +11739,7 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -12660,11 +11772,7 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -12697,11 +11805,7 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -12734,11 +11838,7 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12771,11 +11871,7 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12808,11 +11904,7 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12845,11 +11937,7 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12882,11 +11970,7 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12919,11 +12003,7 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12956,11 +12036,7 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12993,11 +12069,7 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -13030,11 +12102,7 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -13067,11 +12135,7 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -13104,11 +12168,7 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -13141,11 +12201,7 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -13178,11 +12234,7 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -13215,11 +12267,7 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -13252,11 +12300,7 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -13289,11 +12333,7 @@
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -13326,11 +12366,7 @@
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -13363,11 +12399,7 @@
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -13400,11 +12432,7 @@
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -13437,11 +12465,7 @@
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -13474,11 +12498,7 @@
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -13511,11 +12531,7 @@
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -13548,11 +12564,7 @@
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -13581,16 +12593,14 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
       <c r="M356" t="inlineStr"/>
     </row>
     <row r="357">
@@ -13616,7 +12626,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -13649,7 +12659,7 @@
         <v>6101728.019042335</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -13682,7 +12692,7 @@
         <v>6081012.123742335</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -13715,7 +12725,7 @@
         <v>6081012.123742335</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -13748,7 +12758,7 @@
         <v>6056698.983042335</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13781,7 +12791,7 @@
         <v>6056698.983042335</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13814,7 +12824,7 @@
         <v>6147607.129116019</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13847,7 +12857,7 @@
         <v>6144884.537616019</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13880,7 +12890,7 @@
         <v>6125409.132016019</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -13913,7 +12923,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13946,7 +12956,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13979,7 +12989,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -14012,7 +13022,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -14045,7 +13055,7 @@
         <v>6134825.493216019</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -14078,7 +13088,7 @@
         <v>6084077.043216019</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -14111,7 +13121,7 @@
         <v>6221032.187816019</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -14144,7 +13154,7 @@
         <v>6221032.187816019</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -14177,7 +13187,7 @@
         <v>6514037.419561715</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -14210,7 +13220,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -14243,7 +13253,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -14276,7 +13286,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -14309,7 +13319,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -14342,7 +13352,7 @@
         <v>6341397.957561715</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -14771,7 +13781,7 @@
         <v>6280743.817992635</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14804,7 +13814,7 @@
         <v>6287438.487992635</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14837,7 +13847,7 @@
         <v>5418575.845492635</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14870,7 +13880,7 @@
         <v>5418595.845492635</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14903,7 +13913,7 @@
         <v>5080732.360592635</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14936,7 +13946,7 @@
         <v>5518417.697192635</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -14969,7 +13979,7 @@
         <v>5485387.697192635</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -15002,7 +14012,7 @@
         <v>5248961.198692636</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -15035,7 +14045,7 @@
         <v>4847262.069992635</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15068,7 +14078,7 @@
         <v>4847302.069992635</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15101,7 +14111,7 @@
         <v>4769339.339892635</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15134,7 +14144,7 @@
         <v>4769339.339892635</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15167,7 +14177,7 @@
         <v>4769339.339892635</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15200,7 +14210,7 @@
         <v>4769339.339892635</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15233,7 +14243,7 @@
         <v>4804507.762392635</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15266,7 +14276,7 @@
         <v>4804507.762392635</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15299,7 +14309,7 @@
         <v>4804507.762392635</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15332,7 +14342,7 @@
         <v>4842834.600192635</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15365,7 +14375,7 @@
         <v>4835625.564492635</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16652,7 +15662,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -16685,7 +15695,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -16718,7 +15728,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -16751,7 +15761,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -16784,7 +15794,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -19061,7 +18071,7 @@
         <v>5265914.794881896</v>
       </c>
       <c r="H522" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -19094,7 +18104,7 @@
         <v>5250521.765681896</v>
       </c>
       <c r="H523" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -19589,7 +18599,7 @@
         <v>5260119.651082567</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -19820,7 +18830,7 @@
         <v>4938952.152582567</v>
       </c>
       <c r="H545" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
       <c r="J545" t="inlineStr"/>
@@ -22064,7 +21074,7 @@
         <v>4423286.646929226</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22328,7 +21338,7 @@
         <v>4423917.427329225</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -22361,7 +21371,7 @@
         <v>4431113.493929225</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -22394,7 +21404,7 @@
         <v>4431113.493929225</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22427,7 +21437,7 @@
         <v>4365217.693829225</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22460,7 +21470,7 @@
         <v>4172176.540329225</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22493,7 +21503,7 @@
         <v>4172187.540329225</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22526,7 +21536,7 @@
         <v>4174011.557029225</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -22559,7 +21569,7 @@
         <v>4179810.753629225</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -22955,7 +21965,7 @@
         <v>4108611.275929225</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22988,7 +21998,7 @@
         <v>3874736.923229225</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22999,6 +22009,6 @@
       <c r="M641" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-20 BackTest DVP.xlsx
+++ b/BackTest/2019-10-20 BackTest DVP.xlsx
@@ -1111,7 +1111,7 @@
         <v>129178.5095117647</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>1171380.253911765</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>1236280.397211765</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>1236280.397211765</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>1516506.476611765</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>918768.8057117648</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>472751.4074117648</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>497749.7449117649</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>577021.4598117649</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>445068.5747117649</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>445068.5747117649</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -2200,11 +2200,17 @@
         <v>198856.7436117649</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2233,11 +2239,17 @@
         <v>198866.7436117649</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2266,11 +2278,17 @@
         <v>51776.4277117649</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2299,11 +2317,17 @@
         <v>52171.2771117649</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I58" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2332,11 +2356,17 @@
         <v>52577.1636117649</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2365,11 +2395,17 @@
         <v>52567.1636117649</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>14.1</v>
+      </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2398,11 +2434,17 @@
         <v>52577.4314117649</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2435,7 +2477,11 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2464,11 +2510,17 @@
         <v>52577.4314117649</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>14</v>
+      </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2497,11 +2549,17 @@
         <v>52567.4314117649</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>14</v>
+      </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2530,11 +2588,17 @@
         <v>52567.4314117649</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2563,11 +2627,17 @@
         <v>55396.6244117649</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2600,7 +2670,11 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2633,7 +2707,11 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2662,11 +2740,15 @@
         <v>411918.6650117649</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2699,7 +2781,11 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2732,7 +2818,11 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2765,7 +2855,11 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2798,7 +2892,11 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2831,7 +2929,11 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2860,15 +2962,13 @@
         <v>-36109.14438823517</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L75" t="n">
@@ -2973,11 +3073,9 @@
         <v>-36089.14438823517</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr">
         <is>
@@ -3012,11 +3110,9 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr">
         <is>
@@ -3051,11 +3147,9 @@
         <v>-12143.34008823517</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr">
         <is>
@@ -3090,11 +3184,9 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr">
         <is>
@@ -3166,11 +3258,9 @@
         <v>-12143.34008823517</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr">
         <is>
@@ -3205,11 +3295,9 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>13.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr">
         <is>
@@ -3244,11 +3332,9 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr">
         <is>
@@ -3283,11 +3369,9 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr">
         <is>
@@ -3322,11 +3406,9 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr">
         <is>
@@ -3361,11 +3443,9 @@
         <v>-12153.34008823517</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr">
         <is>
@@ -3400,11 +3480,9 @@
         <v>-12123.34008823517</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>13.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr">
         <is>
@@ -3439,11 +3517,9 @@
         <v>-12133.34008823517</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr">
         <is>
@@ -3556,9 +3632,11 @@
         <v>391684.2131117649</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr">
         <is>
@@ -3630,9 +3708,11 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr">
         <is>
@@ -3667,9 +3747,11 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr">
         <is>
@@ -3704,9 +3786,11 @@
         <v>372096.6939117649</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr">
         <is>
@@ -3741,9 +3825,11 @@
         <v>372086.6939117649</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr">
         <is>
@@ -3817,9 +3903,11 @@
         <v>424431.4926117649</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr">
         <is>
@@ -3854,9 +3942,11 @@
         <v>424431.4926117649</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr">
         <is>
@@ -5001,9 +5091,11 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr">
         <is>
@@ -5038,9 +5130,11 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr">
         <is>
@@ -5075,9 +5169,11 @@
         <v>-151897.3821882351</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr">
         <is>
@@ -5112,9 +5208,11 @@
         <v>-147944.7922882352</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr">
         <is>
@@ -5149,9 +5247,11 @@
         <v>-147944.7922882352</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr">
         <is>
@@ -5186,9 +5286,11 @@
         <v>-149863.4021882352</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>13.9</v>
+      </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr">
         <is>
@@ -5223,9 +5325,11 @@
         <v>-149873.4021882352</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr">
         <is>
@@ -5260,9 +5364,11 @@
         <v>-149873.4021882352</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>13.5</v>
+      </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr">
         <is>
@@ -5453,9 +5559,11 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr">
         <is>
@@ -5490,9 +5598,11 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr">
         <is>
@@ -5527,9 +5637,11 @@
         <v>-125296.6578882352</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr">
         <is>
@@ -5564,9 +5676,11 @@
         <v>-171885.7754882352</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr">
         <is>
@@ -5601,9 +5715,11 @@
         <v>-171875.7754882352</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I148" t="n">
+        <v>13.6</v>
+      </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr">
         <is>
@@ -5638,9 +5754,11 @@
         <v>-171875.7754882352</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I149" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr">
         <is>
@@ -5675,9 +5793,11 @@
         <v>-175072.7064882352</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I150" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr">
         <is>
@@ -5712,9 +5832,11 @@
         <v>-175062.7064882352</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I151" t="n">
+        <v>13.7</v>
+      </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr">
         <is>
@@ -5749,9 +5871,11 @@
         <v>-175062.7064882352</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I152" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr">
         <is>
@@ -5786,9 +5910,11 @@
         <v>-163085.2425882352</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I153" t="n">
+        <v>13.8</v>
+      </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr">
         <is>
@@ -5823,11 +5949,9 @@
         <v>-163085.2425882352</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr">
         <is>
@@ -6047,11 +6171,9 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>13.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr">
         <is>
@@ -6086,11 +6208,9 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr">
         <is>
@@ -6125,11 +6245,9 @@
         <v>-225945.4471882352</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr">
         <is>
@@ -6164,11 +6282,9 @@
         <v>156266.8032117648</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>13.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr">
         <is>
@@ -6684,16 +6800,18 @@
         <v>407404.3593117649</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L177" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
       <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
@@ -6719,11 +6837,15 @@
         <v>407404.3593117649</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6756,7 +6878,11 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6785,11 +6911,15 @@
         <v>432821.4921788978</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6818,11 +6948,15 @@
         <v>432781.5421788978</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6851,11 +6985,15 @@
         <v>684036.0289788977</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6884,11 +7022,15 @@
         <v>684036.0289788977</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6917,11 +7059,15 @@
         <v>683996.0789788978</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6950,11 +7096,15 @@
         <v>1027432.724778898</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6983,11 +7133,15 @@
         <v>757192.4544788979</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7016,11 +7170,15 @@
         <v>757354.6222788979</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7053,7 +7211,11 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7082,11 +7244,15 @@
         <v>602495.1856788979</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7119,7 +7285,11 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7152,7 +7322,11 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7185,7 +7359,11 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7218,7 +7396,11 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7251,7 +7433,11 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7284,7 +7470,11 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7317,7 +7507,11 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7350,7 +7544,11 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7383,7 +7581,11 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7416,7 +7618,11 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7449,7 +7655,11 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7482,7 +7692,11 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7515,7 +7729,11 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7548,7 +7766,11 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7581,7 +7803,11 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7610,11 +7836,15 @@
         <v>210694.3250788979</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7647,7 +7877,11 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7680,7 +7914,11 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7713,7 +7951,11 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7746,7 +7988,11 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7779,7 +8025,11 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7812,7 +8062,11 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7845,7 +8099,11 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8136,11 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7911,7 +8173,11 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7944,7 +8210,11 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7977,7 +8247,11 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8010,7 +8284,11 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8043,7 +8321,11 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8076,7 +8358,11 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -8109,7 +8395,11 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8142,7 +8432,11 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8175,7 +8469,11 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8208,7 +8506,11 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8241,7 +8543,11 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8274,7 +8580,11 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8307,7 +8617,11 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8340,7 +8654,11 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8373,7 +8691,11 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8406,7 +8728,11 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8439,7 +8765,11 @@
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8472,7 +8802,11 @@
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8505,7 +8839,11 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8538,7 +8876,11 @@
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8571,7 +8913,11 @@
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8604,7 +8950,11 @@
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8637,7 +8987,11 @@
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8670,7 +9024,11 @@
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -8703,7 +9061,11 @@
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -8736,7 +9098,11 @@
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8769,7 +9135,11 @@
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8802,7 +9172,11 @@
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -8835,7 +9209,11 @@
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -8868,7 +9246,11 @@
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8901,7 +9283,11 @@
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8930,11 +9316,15 @@
         <v>1431752.966305658</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8963,11 +9353,15 @@
         <v>1429844.939605658</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8996,11 +9390,15 @@
         <v>1510327.473805658</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -9029,11 +9427,15 @@
         <v>1510327.473805658</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -9062,11 +9464,15 @@
         <v>1060317.473805658</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -9095,11 +9501,15 @@
         <v>1038141.931605658</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -9128,11 +9538,15 @@
         <v>1038141.931605658</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -9161,11 +9575,15 @@
         <v>1048582.362905658</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -9194,11 +9612,15 @@
         <v>1010401.489805658</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -9227,11 +9649,15 @@
         <v>1010527.791105658</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -9260,11 +9686,15 @@
         <v>993088.9799056582</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -9293,11 +9723,15 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -9326,11 +9760,15 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9359,11 +9797,15 @@
         <v>1044484.062805658</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9392,11 +9834,15 @@
         <v>932979.7304056583</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9429,7 +9875,11 @@
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9462,7 +9912,11 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9495,7 +9949,11 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9528,7 +9986,11 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9561,7 +10023,11 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9594,7 +10060,11 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9627,7 +10097,11 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9660,7 +10134,11 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9689,11 +10167,15 @@
         <v>776564.6390056582</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9722,11 +10204,15 @@
         <v>732780.9778056582</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9755,11 +10241,15 @@
         <v>733242.6329056582</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9792,7 +10282,11 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9821,11 +10315,15 @@
         <v>733242.6329056582</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9854,11 +10352,15 @@
         <v>733232.6329056582</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9887,11 +10389,15 @@
         <v>821486.6971056582</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9920,11 +10426,15 @@
         <v>797536.7897056582</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9953,11 +10463,15 @@
         <v>797536.7897056582</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9986,11 +10500,15 @@
         <v>963622.2106056582</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10019,11 +10537,15 @@
         <v>950153.4799056583</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10052,11 +10574,15 @@
         <v>954152.2308056583</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10085,11 +10611,15 @@
         <v>1670233.761305658</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10118,11 +10648,15 @@
         <v>1620213.761305658</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10151,11 +10685,15 @@
         <v>1622945.346305658</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10184,11 +10722,15 @@
         <v>1622945.346305658</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10221,7 +10763,11 @@
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10254,7 +10800,11 @@
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10287,7 +10837,11 @@
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10320,7 +10874,11 @@
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10353,7 +10911,11 @@
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10386,7 +10948,11 @@
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10419,7 +10985,11 @@
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10452,7 +11022,11 @@
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10485,7 +11059,11 @@
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10518,7 +11096,11 @@
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10551,7 +11133,11 @@
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10584,7 +11170,11 @@
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10617,7 +11207,11 @@
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="inlineStr"/>
+      <c r="K296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10650,7 +11244,11 @@
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="inlineStr"/>
+      <c r="K297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10683,7 +11281,11 @@
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="inlineStr"/>
+      <c r="K298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10716,7 +11318,11 @@
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="inlineStr"/>
+      <c r="K299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10749,7 +11355,11 @@
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="inlineStr"/>
+      <c r="K300" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10782,7 +11392,11 @@
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="inlineStr"/>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10815,7 +11429,11 @@
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="inlineStr"/>
+      <c r="K302" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10848,7 +11466,11 @@
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="inlineStr"/>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10881,7 +11503,11 @@
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="inlineStr"/>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10914,7 +11540,11 @@
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="inlineStr"/>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10947,7 +11577,11 @@
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="inlineStr"/>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10980,7 +11614,11 @@
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="inlineStr"/>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11013,7 +11651,11 @@
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="inlineStr"/>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11046,7 +11688,11 @@
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="inlineStr"/>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11079,7 +11725,11 @@
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="inlineStr"/>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11112,7 +11762,11 @@
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="inlineStr"/>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11145,7 +11799,11 @@
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="inlineStr"/>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11178,7 +11836,11 @@
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="inlineStr"/>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11211,7 +11873,11 @@
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="inlineStr"/>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11244,7 +11910,11 @@
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="inlineStr"/>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11277,7 +11947,11 @@
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="inlineStr"/>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11310,7 +11984,11 @@
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="inlineStr"/>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11343,7 +12021,11 @@
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="inlineStr"/>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11376,7 +12058,11 @@
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="inlineStr"/>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11409,7 +12095,11 @@
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="inlineStr"/>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11442,7 +12132,11 @@
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="inlineStr"/>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11475,7 +12169,11 @@
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="inlineStr"/>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11508,7 +12206,11 @@
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="inlineStr"/>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11541,7 +12243,11 @@
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="inlineStr"/>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11574,7 +12280,11 @@
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="inlineStr"/>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11607,7 +12317,11 @@
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="inlineStr"/>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11640,7 +12354,11 @@
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="inlineStr"/>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11673,7 +12391,11 @@
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="inlineStr"/>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11706,7 +12428,11 @@
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="inlineStr"/>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11739,7 +12465,11 @@
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="inlineStr"/>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11772,7 +12502,11 @@
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="inlineStr"/>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11805,7 +12539,11 @@
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="inlineStr"/>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11838,7 +12576,11 @@
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="inlineStr"/>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -11871,7 +12613,11 @@
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="inlineStr"/>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -11904,7 +12650,11 @@
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="inlineStr"/>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -11937,7 +12687,11 @@
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -11970,7 +12724,11 @@
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12003,7 +12761,11 @@
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12036,7 +12798,11 @@
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12069,7 +12835,11 @@
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12102,7 +12872,11 @@
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12135,7 +12909,11 @@
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12168,7 +12946,11 @@
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12201,7 +12983,11 @@
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12234,7 +13020,11 @@
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12267,7 +13057,11 @@
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12300,7 +13094,11 @@
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12329,14 +13127,16 @@
         <v>5974563.655231809</v>
       </c>
       <c r="H348" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L348" t="inlineStr"/>
       <c r="M348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -12362,7 +13162,7 @@
         <v>6621279.888642335</v>
       </c>
       <c r="H349" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -12395,7 +13195,7 @@
         <v>6925385.997242335</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -12428,7 +13228,7 @@
         <v>6920746.171042335</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12461,7 +13261,7 @@
         <v>6906241.498142336</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12494,7 +13294,7 @@
         <v>7070577.413642336</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12527,7 +13327,7 @@
         <v>6386051.609642336</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12560,7 +13360,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12593,7 +13393,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12626,7 +13426,7 @@
         <v>6101378.415242336</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12659,7 +13459,7 @@
         <v>6101728.019042335</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12692,7 +13492,7 @@
         <v>6081012.123742335</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12725,7 +13525,7 @@
         <v>6081012.123742335</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12758,7 +13558,7 @@
         <v>6056698.983042335</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -15662,7 +16462,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -15695,7 +16495,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -15728,7 +16528,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -15761,7 +16561,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -15794,7 +16594,7 @@
         <v>5548194.684092638</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -18071,7 +18871,7 @@
         <v>5265914.794881896</v>
       </c>
       <c r="H522" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18104,7 +18904,7 @@
         <v>5250521.765681896</v>
       </c>
       <c r="H523" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
